--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,43 +463,2521 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>657</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1231</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
-        <v>2317</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>784</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1523</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53</v>
+      </c>
+      <c r="E5" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61</v>
+      </c>
+      <c r="E6" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>230</v>
+      </c>
+      <c r="D7" t="n">
+        <v>495</v>
+      </c>
+      <c r="E7" t="n">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>598</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B07FWY246F</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B450 AORUS M</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>411</v>
+      </c>
+      <c r="D12" t="n">
+        <v>723</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2641</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5241</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10411</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>369</v>
+      </c>
+      <c r="E15" t="n">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38</v>
+      </c>
+      <c r="E16" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>62</v>
+      </c>
+      <c r="E18" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>257</v>
+      </c>
+      <c r="D19" t="n">
+        <v>482</v>
+      </c>
+      <c r="E19" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>657</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>56</v>
+      </c>
+      <c r="E21" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>712</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1301</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>829</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1651</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>B08F7HPJ4F</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C26" t="n">
         <v>252</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D26" t="n">
         <v>485</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E26" t="n">
         <v>917</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>161</v>
+      </c>
+      <c r="D27" t="n">
+        <v>320</v>
+      </c>
+      <c r="E27" t="n">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>257</v>
+      </c>
+      <c r="E28" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>518</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>741</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1353</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>79</v>
+      </c>
+      <c r="D32" t="n">
+        <v>167</v>
+      </c>
+      <c r="E32" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>13</v>
+      </c>
+      <c r="D35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E35" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>51</v>
+      </c>
+      <c r="D36" t="n">
+        <v>104</v>
+      </c>
+      <c r="E36" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4606</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>35</v>
+      </c>
+      <c r="D39" t="n">
+        <v>96</v>
+      </c>
+      <c r="E39" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>100</v>
+      </c>
+      <c r="D41" t="n">
+        <v>210</v>
+      </c>
+      <c r="E41" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>99</v>
+      </c>
+      <c r="D42" t="n">
+        <v>207</v>
+      </c>
+      <c r="E42" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="n">
+        <v>101</v>
+      </c>
+      <c r="E43" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>394</v>
+      </c>
+      <c r="D44" t="n">
+        <v>779</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B08JHDL4WP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE V2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>227</v>
+      </c>
+      <c r="D47" t="n">
+        <v>507</v>
+      </c>
+      <c r="E47" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>673</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1344</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>233</v>
+      </c>
+      <c r="D49" t="n">
+        <v>527</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="n">
+        <v>31</v>
+      </c>
+      <c r="E50" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>268</v>
+      </c>
+      <c r="D51" t="n">
+        <v>521</v>
+      </c>
+      <c r="E51" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>189</v>
+      </c>
+      <c r="D52" t="n">
+        <v>337</v>
+      </c>
+      <c r="E52" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>17</v>
+      </c>
+      <c r="D53" t="n">
+        <v>36</v>
+      </c>
+      <c r="E53" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>26</v>
+      </c>
+      <c r="D54" t="n">
+        <v>58</v>
+      </c>
+      <c r="E54" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>620</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1328</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>88</v>
+      </c>
+      <c r="D57" t="n">
+        <v>168</v>
+      </c>
+      <c r="E57" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>81</v>
+      </c>
+      <c r="D58" t="n">
+        <v>156</v>
+      </c>
+      <c r="E58" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>181</v>
+      </c>
+      <c r="D59" t="n">
+        <v>385</v>
+      </c>
+      <c r="E59" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>281</v>
+      </c>
+      <c r="D60" t="n">
+        <v>585</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>16</v>
+      </c>
+      <c r="E61" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>109</v>
+      </c>
+      <c r="D62" t="n">
+        <v>231</v>
+      </c>
+      <c r="E62" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>117</v>
+      </c>
+      <c r="D63" t="n">
+        <v>260</v>
+      </c>
+      <c r="E63" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>105</v>
+      </c>
+      <c r="D64" t="n">
+        <v>214</v>
+      </c>
+      <c r="E64" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>146</v>
+      </c>
+      <c r="D65" t="n">
+        <v>307</v>
+      </c>
+      <c r="E65" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>24</v>
+      </c>
+      <c r="D66" t="n">
+        <v>48</v>
+      </c>
+      <c r="E66" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>329</v>
+      </c>
+      <c r="D67" t="n">
+        <v>672</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>163</v>
+      </c>
+      <c r="D68" t="n">
+        <v>314</v>
+      </c>
+      <c r="E68" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>148</v>
+      </c>
+      <c r="D69" t="n">
+        <v>270</v>
+      </c>
+      <c r="E69" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>253</v>
+      </c>
+      <c r="D70" t="n">
+        <v>536</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>302</v>
+      </c>
+      <c r="D71" t="n">
+        <v>619</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>191</v>
+      </c>
+      <c r="D72" t="n">
+        <v>449</v>
+      </c>
+      <c r="E72" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>170</v>
+      </c>
+      <c r="D73" t="n">
+        <v>341</v>
+      </c>
+      <c r="E73" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>205</v>
+      </c>
+      <c r="E74" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17</v>
+      </c>
+      <c r="E77" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>411</v>
+      </c>
+      <c r="D78" t="n">
+        <v>852</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>73</v>
+      </c>
+      <c r="D79" t="n">
+        <v>154</v>
+      </c>
+      <c r="E79" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>89</v>
+      </c>
+      <c r="D80" t="n">
+        <v>185</v>
+      </c>
+      <c r="E80" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>221</v>
+      </c>
+      <c r="D81" t="n">
+        <v>440</v>
+      </c>
+      <c r="E81" t="n">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2735</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5178</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>101</v>
+      </c>
+      <c r="D83" t="n">
+        <v>207</v>
+      </c>
+      <c r="E83" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>20</v>
+      </c>
+      <c r="D84" t="n">
+        <v>42</v>
+      </c>
+      <c r="E84" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>10</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20</v>
+      </c>
+      <c r="E85" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>184</v>
+      </c>
+      <c r="D86" t="n">
+        <v>373</v>
+      </c>
+      <c r="E86" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>236</v>
+      </c>
+      <c r="D87" t="n">
+        <v>490</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>165</v>
+      </c>
+      <c r="D89" t="n">
+        <v>297</v>
+      </c>
+      <c r="E89" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>428</v>
+      </c>
+      <c r="D90" t="n">
+        <v>872</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>17</v>
+      </c>
+      <c r="D91" t="n">
+        <v>34</v>
+      </c>
+      <c r="E91" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>20</v>
+      </c>
+      <c r="D92" t="n">
+        <v>37</v>
+      </c>
+      <c r="E92" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>579</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>171</v>
+      </c>
+      <c r="D94" t="n">
+        <v>347</v>
+      </c>
+      <c r="E94" t="n">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>65</v>
+      </c>
+      <c r="D95" t="n">
+        <v>142</v>
+      </c>
+      <c r="E95" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>728</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1391</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>381</v>
+      </c>
+      <c r="D97" t="n">
+        <v>648</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>491</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1028</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>346</v>
+      </c>
+      <c r="D99" t="n">
+        <v>724</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>237</v>
+      </c>
+      <c r="D100" t="n">
+        <v>527</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>233</v>
+      </c>
+      <c r="D101" t="n">
+        <v>471</v>
+      </c>
+      <c r="E101" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>200</v>
+      </c>
+      <c r="D102" t="n">
+        <v>390</v>
+      </c>
+      <c r="E102" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>182</v>
+      </c>
+      <c r="D103" t="n">
+        <v>428</v>
+      </c>
+      <c r="E103" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>578</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>139</v>
+      </c>
+      <c r="D105" t="n">
+        <v>258</v>
+      </c>
+      <c r="E105" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>17</v>
+      </c>
+      <c r="D106" t="n">
+        <v>33</v>
+      </c>
+      <c r="E106" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>337</v>
+      </c>
+      <c r="D107" t="n">
+        <v>679</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>159</v>
+      </c>
+      <c r="D108" t="n">
+        <v>330</v>
+      </c>
+      <c r="E108" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>424</v>
+      </c>
+      <c r="D109" t="n">
+        <v>784</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>213</v>
+      </c>
+      <c r="D110" t="n">
+        <v>426</v>
+      </c>
+      <c r="E110" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>23</v>
+      </c>
+      <c r="D111" t="n">
+        <v>43</v>
+      </c>
+      <c r="E111" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>105</v>
+      </c>
+      <c r="D112" t="n">
+        <v>206</v>
+      </c>
+      <c r="E112" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>38</v>
+      </c>
+      <c r="D113" t="n">
+        <v>72</v>
+      </c>
+      <c r="E113" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>13</v>
+      </c>
+      <c r="D114" t="n">
+        <v>24</v>
+      </c>
+      <c r="E114" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>22</v>
+      </c>
+      <c r="D115" t="n">
+        <v>42</v>
+      </c>
+      <c r="E115" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>22</v>
+      </c>
+      <c r="D116" t="n">
+        <v>44</v>
+      </c>
+      <c r="E116" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>21</v>
+      </c>
+      <c r="D117" t="n">
+        <v>38</v>
+      </c>
+      <c r="E117" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>14</v>
+      </c>
+      <c r="E118" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>32</v>
+      </c>
+      <c r="D119" t="n">
+        <v>60</v>
+      </c>
+      <c r="E119" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>38</v>
+      </c>
+      <c r="D120" t="n">
+        <v>72</v>
+      </c>
+      <c r="E120" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>39</v>
+      </c>
+      <c r="D121" t="n">
+        <v>73</v>
+      </c>
+      <c r="E121" t="n">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -496,10 +496,10 @@
         <v>784</v>
       </c>
       <c r="D3" t="n">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E3" t="n">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D8" t="n">
         <v>1241</v>
@@ -625,7 +625,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D12" t="n">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E12" t="n">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2641</v>
+        <v>2632</v>
       </c>
       <c r="D14" t="n">
-        <v>5241</v>
+        <v>5223</v>
       </c>
       <c r="E14" t="n">
-        <v>10411</v>
+        <v>10380</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D15" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E15" t="n">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16">
@@ -811,10 +811,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D20" t="n">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="E20" t="n">
-        <v>2315</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="21">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D24" t="n">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="E24" t="n">
-        <v>3375</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="25">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E27" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>518</v>
       </c>
       <c r="D30" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E30" t="n">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D31" t="n">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="E31" t="n">
-        <v>2663</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="32">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2612</v>
+        <v>2631</v>
       </c>
       <c r="D37" t="n">
-        <v>4606</v>
+        <v>4629</v>
       </c>
       <c r="E37" t="n">
-        <v>8347</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
         <v>11</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D48" t="n">
-        <v>1344</v>
+        <v>1309</v>
       </c>
       <c r="E48" t="n">
-        <v>2432</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="49">
@@ -1483,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E50" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D51" t="n">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E51" t="n">
-        <v>973</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52">
@@ -1672,10 +1672,10 @@
         <v>181</v>
       </c>
       <c r="D59" t="n">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E59" t="n">
-        <v>727</v>
+        <v>739</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D60" t="n">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E60" t="n">
-        <v>1167</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="61">
@@ -1756,7 +1756,7 @@
         <v>117</v>
       </c>
       <c r="D63" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E63" t="n">
         <v>522</v>
@@ -1822,7 +1822,7 @@
         <v>48</v>
       </c>
       <c r="E66" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D67" t="n">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E67" t="n">
-        <v>1363</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E68" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D71" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E71" t="n">
-        <v>1285</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="72">
@@ -1945,10 +1945,10 @@
         <v>191</v>
       </c>
       <c r="D72" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E72" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D73" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E73" t="n">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E79" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E80" t="n">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D81" t="n">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E81" t="n">
-        <v>839</v>
+        <v>853</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="D82" t="n">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="E82" t="n">
-        <v>9785</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D83" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E83" t="n">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D86" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E86" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87">
@@ -2260,10 +2260,10 @@
         <v>236</v>
       </c>
       <c r="D87" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E87" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="88">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D90" t="n">
         <v>872</v>
       </c>
       <c r="E90" t="n">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="91">
@@ -2638,7 +2638,7 @@
         <v>139</v>
       </c>
       <c r="D105" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E105" t="n">
         <v>501</v>
@@ -2725,7 +2725,7 @@
         <v>784</v>
       </c>
       <c r="E109" t="n">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="110">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D3" t="n">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="E3" t="n">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="4">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" t="n">
         <v>495</v>
       </c>
       <c r="E7" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D12" t="n">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="E12" t="n">
-        <v>1249</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="D14" t="n">
-        <v>5223</v>
+        <v>5243</v>
       </c>
       <c r="E14" t="n">
-        <v>10380</v>
+        <v>10416</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D15" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E15" t="n">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16">
@@ -811,10 +811,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D20" t="n">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="E20" t="n">
-        <v>2300</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="21">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D24" t="n">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E24" t="n">
-        <v>3326</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="25">
@@ -1000,10 +1000,10 @@
         <v>160</v>
       </c>
       <c r="D27" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E27" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28">
@@ -1066,7 +1066,7 @@
         <v>1052</v>
       </c>
       <c r="E30" t="n">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D31" t="n">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E31" t="n">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="32">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2631</v>
+        <v>2649</v>
       </c>
       <c r="D37" t="n">
-        <v>4629</v>
+        <v>4525</v>
       </c>
       <c r="E37" t="n">
-        <v>8412</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>11</v>
@@ -1294,10 +1294,10 @@
         <v>99</v>
       </c>
       <c r="D41" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E41" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42">
@@ -1360,7 +1360,7 @@
         <v>779</v>
       </c>
       <c r="E44" t="n">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="45">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
         <v>18</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D48" t="n">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E48" t="n">
-        <v>2394</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="49">
@@ -1483,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E50" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D51" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E51" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="52">
@@ -1546,10 +1546,10 @@
         <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
@@ -1672,10 +1672,10 @@
         <v>181</v>
       </c>
       <c r="D59" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E59" t="n">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D60" t="n">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E60" t="n">
-        <v>1151</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="61">
@@ -1780,7 +1780,7 @@
         <v>214</v>
       </c>
       <c r="E64" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E66" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D67" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E67" t="n">
         <v>1352</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D68" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E68" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D70" t="n">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E70" t="n">
-        <v>1069</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D71" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E71" t="n">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="72">
@@ -1945,10 +1945,10 @@
         <v>191</v>
       </c>
       <c r="D72" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E72" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73">
@@ -1966,10 +1966,10 @@
         <v>169</v>
       </c>
       <c r="D73" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E73" t="n">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="74">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E79" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E80" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D81" t="n">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E81" t="n">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="D82" t="n">
-        <v>5176</v>
+        <v>5180</v>
       </c>
       <c r="E82" t="n">
-        <v>9786</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E83" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84">
@@ -2197,7 +2197,7 @@
         <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E84" t="n">
         <v>82</v>
@@ -2239,10 +2239,10 @@
         <v>183</v>
       </c>
       <c r="D86" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E86" t="n">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="87">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D90" t="n">
         <v>872</v>
@@ -2431,7 +2431,7 @@
         <v>142</v>
       </c>
       <c r="E95" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D109" t="n">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E109" t="n">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="110">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,2521 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54</v>
+      </c>
+      <c r="E2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>784</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61</v>
+      </c>
+      <c r="E6" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>235</v>
+      </c>
+      <c r="D7" t="n">
+        <v>505</v>
+      </c>
+      <c r="E7" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>597</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B07FWY246F</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B450 AORUS M</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>411</v>
+      </c>
+      <c r="D12" t="n">
+        <v>723</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2641</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5241</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10414</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>193</v>
+      </c>
+      <c r="D15" t="n">
+        <v>371</v>
+      </c>
+      <c r="E15" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38</v>
+      </c>
+      <c r="E16" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>257</v>
+      </c>
+      <c r="D19" t="n">
+        <v>482</v>
+      </c>
+      <c r="E19" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>652</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1222</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>56</v>
+      </c>
+      <c r="E21" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>712</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1301</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>828</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1654</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>252</v>
+      </c>
+      <c r="D26" t="n">
+        <v>485</v>
+      </c>
+      <c r="E26" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>159</v>
+      </c>
+      <c r="D27" t="n">
+        <v>317</v>
+      </c>
+      <c r="E27" t="n">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>257</v>
+      </c>
+      <c r="E28" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>518</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>743</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>79</v>
+      </c>
+      <c r="D32" t="n">
+        <v>167</v>
+      </c>
+      <c r="E32" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>13</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>51</v>
+      </c>
+      <c r="D36" t="n">
+        <v>104</v>
+      </c>
+      <c r="E36" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2632</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4629</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>35</v>
+      </c>
+      <c r="D39" t="n">
+        <v>96</v>
+      </c>
+      <c r="E39" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>99</v>
+      </c>
+      <c r="D41" t="n">
+        <v>209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>99</v>
+      </c>
+      <c r="D42" t="n">
+        <v>207</v>
+      </c>
+      <c r="E42" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="n">
+        <v>101</v>
+      </c>
+      <c r="E43" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>399</v>
+      </c>
+      <c r="D44" t="n">
+        <v>788</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>18</v>
+      </c>
+      <c r="E45" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B08JHDL4WP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE V2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>227</v>
+      </c>
+      <c r="D47" t="n">
+        <v>507</v>
+      </c>
+      <c r="E47" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>674</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1308</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>233</v>
+      </c>
+      <c r="D49" t="n">
+        <v>527</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="n">
+        <v>30</v>
+      </c>
+      <c r="E50" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>264</v>
+      </c>
+      <c r="D51" t="n">
+        <v>526</v>
+      </c>
+      <c r="E51" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>189</v>
+      </c>
+      <c r="D52" t="n">
+        <v>337</v>
+      </c>
+      <c r="E52" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>16</v>
+      </c>
+      <c r="D53" t="n">
+        <v>34</v>
+      </c>
+      <c r="E53" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>26</v>
+      </c>
+      <c r="D54" t="n">
+        <v>58</v>
+      </c>
+      <c r="E54" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>620</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1328</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>88</v>
+      </c>
+      <c r="D57" t="n">
+        <v>168</v>
+      </c>
+      <c r="E57" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>81</v>
+      </c>
+      <c r="D58" t="n">
+        <v>156</v>
+      </c>
+      <c r="E58" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>181</v>
+      </c>
+      <c r="D59" t="n">
+        <v>385</v>
+      </c>
+      <c r="E59" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>281</v>
+      </c>
+      <c r="D60" t="n">
+        <v>585</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>16</v>
+      </c>
+      <c r="E61" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>109</v>
+      </c>
+      <c r="D62" t="n">
+        <v>231</v>
+      </c>
+      <c r="E62" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>117</v>
+      </c>
+      <c r="D63" t="n">
+        <v>261</v>
+      </c>
+      <c r="E63" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>104</v>
+      </c>
+      <c r="D64" t="n">
+        <v>211</v>
+      </c>
+      <c r="E64" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>146</v>
+      </c>
+      <c r="D65" t="n">
+        <v>307</v>
+      </c>
+      <c r="E65" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" t="n">
+        <v>50</v>
+      </c>
+      <c r="E66" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>322</v>
+      </c>
+      <c r="D67" t="n">
+        <v>659</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>163</v>
+      </c>
+      <c r="D68" t="n">
+        <v>314</v>
+      </c>
+      <c r="E68" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>148</v>
+      </c>
+      <c r="D69" t="n">
+        <v>270</v>
+      </c>
+      <c r="E69" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>250</v>
+      </c>
+      <c r="D70" t="n">
+        <v>528</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>298</v>
+      </c>
+      <c r="D71" t="n">
+        <v>610</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>191</v>
+      </c>
+      <c r="D72" t="n">
+        <v>458</v>
+      </c>
+      <c r="E72" t="n">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>169</v>
+      </c>
+      <c r="D73" t="n">
+        <v>339</v>
+      </c>
+      <c r="E73" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>205</v>
+      </c>
+      <c r="E74" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17</v>
+      </c>
+      <c r="E77" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>411</v>
+      </c>
+      <c r="D78" t="n">
+        <v>852</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>73</v>
+      </c>
+      <c r="D79" t="n">
+        <v>153</v>
+      </c>
+      <c r="E79" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>89</v>
+      </c>
+      <c r="D80" t="n">
+        <v>185</v>
+      </c>
+      <c r="E80" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>218</v>
+      </c>
+      <c r="D81" t="n">
+        <v>435</v>
+      </c>
+      <c r="E81" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2734</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5178</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9783</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>98</v>
+      </c>
+      <c r="D83" t="n">
+        <v>202</v>
+      </c>
+      <c r="E83" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>20</v>
+      </c>
+      <c r="D84" t="n">
+        <v>41</v>
+      </c>
+      <c r="E84" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>34</v>
+      </c>
+      <c r="D85" t="n">
+        <v>74</v>
+      </c>
+      <c r="E85" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>183</v>
+      </c>
+      <c r="D86" t="n">
+        <v>372</v>
+      </c>
+      <c r="E86" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>236</v>
+      </c>
+      <c r="D87" t="n">
+        <v>492</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>165</v>
+      </c>
+      <c r="D89" t="n">
+        <v>297</v>
+      </c>
+      <c r="E89" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>427</v>
+      </c>
+      <c r="D90" t="n">
+        <v>871</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>17</v>
+      </c>
+      <c r="D91" t="n">
+        <v>34</v>
+      </c>
+      <c r="E91" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>20</v>
+      </c>
+      <c r="D92" t="n">
+        <v>37</v>
+      </c>
+      <c r="E92" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>579</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>171</v>
+      </c>
+      <c r="D94" t="n">
+        <v>347</v>
+      </c>
+      <c r="E94" t="n">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>65</v>
+      </c>
+      <c r="D95" t="n">
+        <v>143</v>
+      </c>
+      <c r="E95" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>B0DGVC3DDW</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>666</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1287</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C96" t="n">
+        <v>2059</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3403</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1428</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2901</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>853</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1402</v>
+      </c>
+      <c r="E98" t="n">
         <v>2518</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>418</v>
+      </c>
+      <c r="D99" t="n">
+        <v>824</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>365</v>
+      </c>
+      <c r="D100" t="n">
+        <v>731</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>668</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>393</v>
+      </c>
+      <c r="D102" t="n">
+        <v>698</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>358</v>
+      </c>
+      <c r="D103" t="n">
+        <v>746</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>943</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>139</v>
+      </c>
+      <c r="D105" t="n">
+        <v>257</v>
+      </c>
+      <c r="E105" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>17</v>
+      </c>
+      <c r="D106" t="n">
+        <v>33</v>
+      </c>
+      <c r="E106" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>337</v>
+      </c>
+      <c r="D107" t="n">
+        <v>679</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>159</v>
+      </c>
+      <c r="D108" t="n">
+        <v>330</v>
+      </c>
+      <c r="E108" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>424</v>
+      </c>
+      <c r="D109" t="n">
+        <v>783</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>213</v>
+      </c>
+      <c r="D110" t="n">
+        <v>426</v>
+      </c>
+      <c r="E110" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>72</v>
+      </c>
+      <c r="D111" t="n">
+        <v>124</v>
+      </c>
+      <c r="E111" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>257</v>
+      </c>
+      <c r="D112" t="n">
+        <v>456</v>
+      </c>
+      <c r="E112" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>129</v>
+      </c>
+      <c r="D113" t="n">
+        <v>228</v>
+      </c>
+      <c r="E113" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>47</v>
+      </c>
+      <c r="D114" t="n">
+        <v>85</v>
+      </c>
+      <c r="E114" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>57</v>
+      </c>
+      <c r="D115" t="n">
+        <v>109</v>
+      </c>
+      <c r="E115" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>64</v>
+      </c>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>106</v>
+      </c>
+      <c r="D117" t="n">
+        <v>173</v>
+      </c>
+      <c r="E117" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>42</v>
+      </c>
+      <c r="D118" t="n">
+        <v>77</v>
+      </c>
+      <c r="E118" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>112</v>
+      </c>
+      <c r="D119" t="n">
+        <v>195</v>
+      </c>
+      <c r="E119" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>104</v>
+      </c>
+      <c r="D120" t="n">
+        <v>179</v>
+      </c>
+      <c r="E120" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>115</v>
+      </c>
+      <c r="D121" t="n">
+        <v>191</v>
+      </c>
+      <c r="E121" t="n">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>4 Weeks Forecast</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>8 Weeks Forecast</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>16 Weeks Forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101</v>
+      </c>
+      <c r="E3" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>225</v>
+      </c>
+      <c r="E4" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2153</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4124</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,85 +463,2542 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>652</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>1346</v>
       </c>
       <c r="E3" t="n">
-        <v>209</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>502</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>311</v>
+      </c>
+      <c r="D8" t="n">
+        <v>657</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>420</v>
+      </c>
+      <c r="D9" t="n">
+        <v>972</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>605</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1155</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2322</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4693</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>164</v>
+      </c>
+      <c r="D15" t="n">
+        <v>342</v>
+      </c>
+      <c r="E15" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E16" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>33</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67</v>
+      </c>
+      <c r="E18" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>237</v>
+      </c>
+      <c r="D19" t="n">
+        <v>476</v>
+      </c>
+      <c r="E19" t="n">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>474</v>
+      </c>
+      <c r="D21" t="n">
+        <v>953</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>489</v>
+      </c>
+      <c r="D23" t="n">
+        <v>944</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>712</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1612</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>542</v>
+      </c>
+      <c r="D27" t="n">
+        <v>958</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>121</v>
+      </c>
+      <c r="D28" t="n">
+        <v>253</v>
+      </c>
+      <c r="E28" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>78</v>
+      </c>
+      <c r="D29" t="n">
+        <v>170</v>
+      </c>
+      <c r="E29" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>633</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1294</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>508</v>
+      </c>
+      <c r="D32" t="n">
+        <v>984</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>48</v>
+      </c>
+      <c r="D33" t="n">
+        <v>101</v>
+      </c>
+      <c r="E33" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16</v>
+      </c>
+      <c r="E36" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>72</v>
+      </c>
+      <c r="D37" t="n">
+        <v>146</v>
+      </c>
+      <c r="E37" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2196</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4229</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7564</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>25</v>
+      </c>
+      <c r="D40" t="n">
+        <v>54</v>
+      </c>
+      <c r="E40" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>67</v>
+      </c>
+      <c r="D42" t="n">
+        <v>132</v>
+      </c>
+      <c r="E42" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>82</v>
+      </c>
+      <c r="D43" t="n">
+        <v>178</v>
+      </c>
+      <c r="E43" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>35</v>
+      </c>
+      <c r="D44" t="n">
+        <v>79</v>
+      </c>
+      <c r="E44" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>409</v>
+      </c>
+      <c r="D45" t="n">
+        <v>775</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>139</v>
+      </c>
+      <c r="D48" t="n">
+        <v>303</v>
+      </c>
+      <c r="E48" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>813</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1607</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>273</v>
+      </c>
+      <c r="D50" t="n">
+        <v>577</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>24</v>
+      </c>
+      <c r="E51" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>233</v>
+      </c>
+      <c r="D52" t="n">
+        <v>475</v>
+      </c>
+      <c r="E52" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>150</v>
+      </c>
+      <c r="D53" t="n">
+        <v>295</v>
+      </c>
+      <c r="E53" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>30</v>
+      </c>
+      <c r="D54" t="n">
+        <v>63</v>
+      </c>
+      <c r="E54" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>21</v>
+      </c>
+      <c r="D55" t="n">
+        <v>42</v>
+      </c>
+      <c r="E55" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1168</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>86</v>
+      </c>
+      <c r="D58" t="n">
+        <v>176</v>
+      </c>
+      <c r="E58" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>64</v>
+      </c>
+      <c r="D59" t="n">
+        <v>125</v>
+      </c>
+      <c r="E59" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>184</v>
+      </c>
+      <c r="D60" t="n">
+        <v>393</v>
+      </c>
+      <c r="E60" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>281</v>
+      </c>
+      <c r="D61" t="n">
+        <v>555</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>7</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13</v>
+      </c>
+      <c r="E62" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>102</v>
+      </c>
+      <c r="D63" t="n">
+        <v>226</v>
+      </c>
+      <c r="E63" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>93</v>
+      </c>
+      <c r="D64" t="n">
+        <v>188</v>
+      </c>
+      <c r="E64" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>116</v>
+      </c>
+      <c r="D65" t="n">
+        <v>233</v>
+      </c>
+      <c r="E65" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>192</v>
+      </c>
+      <c r="D66" t="n">
+        <v>379</v>
+      </c>
+      <c r="E66" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>19</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40</v>
+      </c>
+      <c r="E67" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>256</v>
+      </c>
+      <c r="D68" t="n">
+        <v>516</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>147</v>
+      </c>
+      <c r="D69" t="n">
+        <v>287</v>
+      </c>
+      <c r="E69" t="n">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>180</v>
+      </c>
+      <c r="D70" t="n">
+        <v>360</v>
+      </c>
+      <c r="E70" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>265</v>
+      </c>
+      <c r="D71" t="n">
+        <v>544</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>209</v>
+      </c>
+      <c r="D72" t="n">
+        <v>427</v>
+      </c>
+      <c r="E72" t="n">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>94</v>
+      </c>
+      <c r="D73" t="n">
+        <v>225</v>
+      </c>
+      <c r="E73" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>132</v>
+      </c>
+      <c r="D74" t="n">
+        <v>296</v>
+      </c>
+      <c r="E74" t="n">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>98</v>
+      </c>
+      <c r="D75" t="n">
+        <v>191</v>
+      </c>
+      <c r="E75" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17</v>
+      </c>
+      <c r="E77" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>406</v>
+      </c>
+      <c r="D78" t="n">
+        <v>841</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>91</v>
+      </c>
+      <c r="D79" t="n">
+        <v>183</v>
+      </c>
+      <c r="E79" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>77</v>
+      </c>
+      <c r="D80" t="n">
+        <v>167</v>
+      </c>
+      <c r="E80" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>176</v>
+      </c>
+      <c r="D81" t="n">
+        <v>360</v>
+      </c>
+      <c r="E81" t="n">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2484</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4849</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9552</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>49</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>15</v>
+      </c>
+      <c r="D84" t="n">
+        <v>32</v>
+      </c>
+      <c r="E84" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>12</v>
+      </c>
+      <c r="D85" t="n">
+        <v>24</v>
+      </c>
+      <c r="E85" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>185</v>
+      </c>
+      <c r="D86" t="n">
+        <v>382</v>
+      </c>
+      <c r="E86" t="n">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>251</v>
+      </c>
+      <c r="D87" t="n">
+        <v>512</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>43</v>
+      </c>
+      <c r="D89" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>431</v>
+      </c>
+      <c r="D90" t="n">
+        <v>859</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>11</v>
+      </c>
+      <c r="D91" t="n">
+        <v>22</v>
+      </c>
+      <c r="E91" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>11</v>
+      </c>
+      <c r="D92" t="n">
+        <v>24</v>
+      </c>
+      <c r="E92" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>521</v>
+      </c>
+      <c r="D93" t="n">
+        <v>999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>186</v>
+      </c>
+      <c r="D94" t="n">
+        <v>381</v>
+      </c>
+      <c r="E94" t="n">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>64</v>
+      </c>
+      <c r="D95" t="n">
+        <v>131</v>
+      </c>
+      <c r="E95" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>B0DGVC3DDW</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C96" t="n">
         <v>1140</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D96" t="n">
         <v>2153</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E96" t="n">
         <v>4124</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>679</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>863</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>445</v>
+      </c>
+      <c r="D99" t="n">
+        <v>901</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>376</v>
+      </c>
+      <c r="D100" t="n">
+        <v>720</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>536</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>218</v>
+      </c>
+      <c r="D102" t="n">
+        <v>453</v>
+      </c>
+      <c r="E102" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>270</v>
+      </c>
+      <c r="D103" t="n">
+        <v>545</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>667</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1428</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>138</v>
+      </c>
+      <c r="D105" t="n">
+        <v>282</v>
+      </c>
+      <c r="E105" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>16</v>
+      </c>
+      <c r="D106" t="n">
+        <v>33</v>
+      </c>
+      <c r="E106" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>246</v>
+      </c>
+      <c r="D107" t="n">
+        <v>517</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>59</v>
+      </c>
+      <c r="D108" t="n">
+        <v>145</v>
+      </c>
+      <c r="E108" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>376</v>
+      </c>
+      <c r="D109" t="n">
+        <v>756</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>174</v>
+      </c>
+      <c r="D110" t="n">
+        <v>359</v>
+      </c>
+      <c r="E110" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>24</v>
+      </c>
+      <c r="D111" t="n">
+        <v>45</v>
+      </c>
+      <c r="E111" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>137</v>
+      </c>
+      <c r="D112" t="n">
+        <v>274</v>
+      </c>
+      <c r="E112" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>63</v>
+      </c>
+      <c r="D113" t="n">
+        <v>121</v>
+      </c>
+      <c r="E113" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>12</v>
+      </c>
+      <c r="D114" t="n">
+        <v>24</v>
+      </c>
+      <c r="E114" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>25</v>
+      </c>
+      <c r="D115" t="n">
+        <v>49</v>
+      </c>
+      <c r="E115" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>38</v>
+      </c>
+      <c r="D116" t="n">
+        <v>70</v>
+      </c>
+      <c r="E116" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>34</v>
+      </c>
+      <c r="D117" t="n">
+        <v>66</v>
+      </c>
+      <c r="E117" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>15</v>
+      </c>
+      <c r="D118" t="n">
+        <v>31</v>
+      </c>
+      <c r="E118" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>58</v>
+      </c>
+      <c r="D119" t="n">
+        <v>115</v>
+      </c>
+      <c r="E119" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>38</v>
+      </c>
+      <c r="D120" t="n">
+        <v>76</v>
+      </c>
+      <c r="E120" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>47</v>
+      </c>
+      <c r="D121" t="n">
+        <v>92</v>
+      </c>
+      <c r="E121" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>39</v>
+      </c>
+      <c r="D122" t="n">
+        <v>77</v>
+      </c>
+      <c r="E122" t="n">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -493,654 +493,654 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="D3" t="n">
-        <v>1346</v>
+        <v>1490</v>
       </c>
       <c r="E3" t="n">
-        <v>2639</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B660M DS3H AX DDR4</t>
+          <t>Z690 AORUS ULTRA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09JZFT4SN</t>
+          <t>B09JZGTYXJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z690 AORUS ULTRA</t>
+          <t>Z690 UD AX DDR4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B09JZGTYXJ</t>
+          <t>B07T6N8N56</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Z690 UD AX DDR4</t>
+          <t>B365M DS3H</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B07T6N8N56</t>
+          <t>B08R5736B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B365M DS3H</t>
+          <t>B550M DS3H AC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
+          <t>B0BH6XND27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B550M DS3H AC</t>
+          <t>B650M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="D8" t="n">
-        <v>657</v>
+        <v>1032</v>
       </c>
       <c r="E8" t="n">
-        <v>1184</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B0BH6XND27</t>
+          <t>B083NK82QJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
+          <t>H610I DDR4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>420</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>972</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>1997</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>H610I DDR4</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>507</v>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>1065</v>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B089FY7QT1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B550 GAMING X V2</t>
+          <t>B550M DS3H</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>605</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1155</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>2118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B07GBM3M88</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B550M DS3H</t>
+          <t>GC-WB1733D-I</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GC-WB1733D-I</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>2400</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>4951</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>10313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B07VNBC5PS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>GC-WBAX200</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2322</v>
+        <v>167</v>
       </c>
       <c r="D14" t="n">
-        <v>4693</v>
+        <v>360</v>
       </c>
       <c r="E14" t="n">
-        <v>9470</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GC-WBAX200</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>666</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B0BH9BBLHB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Z690 AERO G</t>
+          <t>Z790 AERO G</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B0BHTMXMRQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z790 AERO G</t>
+          <t>Z790 UD AC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B07FWVJSHC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Z790 UD AC</t>
+          <t>B450M DS3H</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>962</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B450M DS3H</t>
+          <t>A520I AC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>497</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>B450 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>474</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>953</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1857</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B450 AORUS PRO WIFI</t>
+          <t>B450M DS3H WIFI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>527</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>1049</v>
       </c>
       <c r="E22" t="n">
-        <v>56</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B450M DS3H WIFI</t>
+          <t>Z690 GAMING X DDR4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>944</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Z690 GAMING X DDR4</t>
+          <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>610</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1687</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>712</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1612</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>3370</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GA-A320M-S2H</t>
+          <t>A520M S2H</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>557</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>927</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A520M S2H</t>
+          <t>B550I AORUS PRO AX</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="D27" t="n">
-        <v>958</v>
+        <v>99</v>
       </c>
       <c r="E27" t="n">
-        <v>1883</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
+          <t>Z790 AORUS MASTER</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D28" t="n">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="E28" t="n">
-        <v>523</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B07WL5MFXL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER</t>
+          <t>X570 AORUS ELITE WIFI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>348</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>X570 AORUS ELITE WIFI</t>
+          <t>B760M DS3H DDR4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>606</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>1222</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B760M DS3H DDR4</t>
+          <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>633</v>
+        <v>557</v>
       </c>
       <c r="D31" t="n">
-        <v>1294</v>
+        <v>1086</v>
       </c>
       <c r="E31" t="n">
-        <v>2570</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X670 AORUS ELITE AX</t>
+          <t>X670E AORUS MASTER</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>508</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>984</v>
+        <v>35</v>
       </c>
       <c r="E32" t="n">
-        <v>1988</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>Z390 UD</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Z390 UD</t>
+          <t>Z590 AORUS TACHYON</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1156,1849 +1156,1366 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Z590 AORUS TACHYON</t>
+          <t>B550M AORUS ELITE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE</t>
+          <t>B650 AERO G</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="E36" t="n">
-        <v>31</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B650 AERO G</t>
+          <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>72</v>
+        <v>2638</v>
       </c>
       <c r="D37" t="n">
-        <v>146</v>
+        <v>5130</v>
       </c>
       <c r="E37" t="n">
-        <v>284</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B650 AORUS ELITE AX</t>
+          <t>B660M A ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2196</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>4229</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>7564</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B660M A ELITE AX DDR4</t>
+          <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B760M AORUS ELITE AX</t>
+          <t>Z490 AORUS MASTER</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Z490 AORUS MASTER</t>
+          <t>Z790 GAMING X AX</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Z790 GAMING X AX</t>
+          <t>B760 DS3H AC DDR4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D42" t="n">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="E42" t="n">
-        <v>237</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B760 DS3H AC DDR4</t>
+          <t>B760I AORUS PRO DDR4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="E43" t="n">
-        <v>352</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO DDR4</t>
+          <t>B760M DS3H AX</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>439</v>
       </c>
       <c r="D44" t="n">
-        <v>79</v>
+        <v>854</v>
       </c>
       <c r="E44" t="n">
-        <v>157</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B760M DS3H AX</t>
+          <t>B760M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>409</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>775</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>1452</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B09J6BWK2Z</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B760M DS3H AX DDR4</t>
+          <t>Z690 AORUS ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
         <v>6</v>
       </c>
-      <c r="D46" t="n">
-        <v>11</v>
-      </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Z690 AORUS ELITE AX DDR4</t>
+          <t>B550 UD AC</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="E47" t="n">
-        <v>25</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B550 UD AC</t>
+          <t>B550M K</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>139</v>
+        <v>903</v>
       </c>
       <c r="D48" t="n">
-        <v>303</v>
+        <v>1859</v>
       </c>
       <c r="E48" t="n">
-        <v>635</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B550M K</t>
+          <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>813</v>
+        <v>215</v>
       </c>
       <c r="D49" t="n">
-        <v>1607</v>
+        <v>429</v>
       </c>
       <c r="E49" t="n">
-        <v>2739</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H610M S2H V2 DDR4</t>
+          <t>Z790 D DDR4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>577</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>1165</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>B650I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="D51" t="n">
-        <v>24</v>
+        <v>502</v>
       </c>
       <c r="E51" t="n">
-        <v>50</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B650I AORUS ULTRA</t>
+          <t>B760 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="D52" t="n">
-        <v>475</v>
+        <v>313</v>
       </c>
       <c r="E52" t="n">
-        <v>944</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B760 AORUS ELITE AX</t>
+          <t>Z790 UD AX</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>577</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Z790 UD AX</t>
+          <t>Z790I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E54" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Z790I AORUS ULTRA</t>
+          <t>Z690 AORUS MASTER</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Z690 AORUS MASTER</t>
+          <t>B650 GAMING X AX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>1389</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX</t>
+          <t>B760 GAMING X AX</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>500</v>
+        <v>93</v>
       </c>
       <c r="D57" t="n">
-        <v>1168</v>
+        <v>181</v>
       </c>
       <c r="E57" t="n">
-        <v>2665</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B760 GAMING X AX</t>
+          <t>B760I AORUS PRO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D58" t="n">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E58" t="n">
-        <v>342</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO</t>
+          <t>B760M C</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="D59" t="n">
-        <v>125</v>
+        <v>454</v>
       </c>
       <c r="E59" t="n">
-        <v>248</v>
+        <v>821</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B760M C</t>
+          <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="D60" t="n">
-        <v>393</v>
+        <v>488</v>
       </c>
       <c r="E60" t="n">
-        <v>741</v>
+        <v>970</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE AX</t>
+          <t>Q670M D3H</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>555</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>1089</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Q670M D3H</t>
+          <t>A620M S2H</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="E62" t="n">
-        <v>26</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A620M S2H</t>
+          <t>B650M K</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="D63" t="n">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
-        <v>427</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B650M K</t>
+          <t>H610I</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="D64" t="n">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="E64" t="n">
-        <v>360</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H610I</t>
+          <t>H610M S2H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="D65" t="n">
-        <v>233</v>
+        <v>424</v>
       </c>
       <c r="E65" t="n">
-        <v>460</v>
+        <v>756</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H610M S2H</t>
+          <t>A620M GAMING X</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>725</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>B650M D3HP</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>594</v>
       </c>
       <c r="E67" t="n">
-        <v>86</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B650M D3HP</t>
+          <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>256</v>
+        <v>118</v>
       </c>
       <c r="D68" t="n">
-        <v>516</v>
+        <v>221</v>
       </c>
       <c r="E68" t="n">
-        <v>1039</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Z790 A ELITE X WIFI7</t>
+          <t>Z790 AORUS PRO X</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D69" t="n">
-        <v>287</v>
+        <v>402</v>
       </c>
       <c r="E69" t="n">
-        <v>546</v>
+        <v>787</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>A620I AX</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="D70" t="n">
-        <v>360</v>
+        <v>656</v>
       </c>
       <c r="E70" t="n">
-        <v>703</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>X670 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D71" t="n">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="E71" t="n">
-        <v>1123</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X670 GAMING X AX V2</t>
+          <t>X670E AORUS PRO X</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D72" t="n">
-        <v>427</v>
+        <v>37</v>
       </c>
       <c r="E72" t="n">
-        <v>878</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D73" t="n">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="E73" t="n">
-        <v>502</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Z790 A ELITE AX ICE</t>
+          <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D74" t="n">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="E74" t="n">
-        <v>583</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>98</v>
+        <v>1334</v>
       </c>
       <c r="D75" t="n">
-        <v>191</v>
+        <v>2776</v>
       </c>
       <c r="E75" t="n">
-        <v>360</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B650 A ELITE AX ICE</t>
+          <t xml:space="preserve">B650M C V2                    </t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1039</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>2152</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>4217</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650M C V2                    </t>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>474</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>993</v>
       </c>
       <c r="E77" t="n">
-        <v>32</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+          <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>406</v>
+        <v>96</v>
       </c>
       <c r="D78" t="n">
-        <v>841</v>
+        <v>195</v>
       </c>
       <c r="E78" t="n">
-        <v>1768</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">B760M D3H                     </t>
+          <t>A620M GAMING X AX</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D79" t="n">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E79" t="n">
-        <v>357</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B550 AORUS ELITE AX V3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="D80" t="n">
-        <v>167</v>
+        <v>424</v>
       </c>
       <c r="E80" t="n">
-        <v>346</v>
+        <v>929</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B550 AORUS ELITE AX V3</t>
+          <t>B650 EAGLE AX</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>176</v>
+        <v>2526</v>
       </c>
       <c r="D81" t="n">
-        <v>360</v>
+        <v>5263</v>
       </c>
       <c r="E81" t="n">
-        <v>755</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0CTTY491F</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B650 EAGLE AX</t>
+          <t>B650 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2484</v>
+        <v>54</v>
       </c>
       <c r="D82" t="n">
-        <v>4849</v>
+        <v>109</v>
       </c>
       <c r="E82" t="n">
-        <v>9552</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX V2</t>
+          <t>B650 UD AC</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E83" t="n">
-        <v>201</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B650 UD AC</t>
+          <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="D84" t="n">
-        <v>32</v>
+        <v>420</v>
       </c>
       <c r="E84" t="n">
-        <v>64</v>
+        <v>934</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B650 UD AX</t>
+          <t>B650M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="D85" t="n">
-        <v>24</v>
+        <v>542</v>
       </c>
       <c r="E85" t="n">
-        <v>48</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B650E AORUS Elite X AX ICE</t>
+          <t>B650M C V3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>382</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>811</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX ICE</t>
+          <t>B650M D3HP AX</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="D87" t="n">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="E87" t="n">
-        <v>1085</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B650M C V3</t>
+          <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>832</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B650M D3HP AX</t>
+          <t>B760 DS3H AC</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B650M GAMING PLUS WIFI</t>
+          <t>B760 DS3H AX</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>431</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>859</v>
+        <v>21</v>
       </c>
       <c r="E90" t="n">
-        <v>1701</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B760 DS3H AC</t>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>11</v>
+        <v>624</v>
       </c>
       <c r="D91" t="n">
-        <v>22</v>
+        <v>1245</v>
       </c>
       <c r="E91" t="n">
-        <v>42</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B760 DS3H AX</t>
+          <t>GC-WIFI7</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="E92" t="n">
-        <v>46</v>
+        <v>885</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B0CPW1F841</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B760M GAMING PLUS WIFI DDR4</t>
+          <t>TRX50 AERO D</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>521</v>
+        <v>53</v>
       </c>
       <c r="D93" t="n">
-        <v>999</v>
+        <v>107</v>
       </c>
       <c r="E93" t="n">
-        <v>1912</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0CTTVFWHM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GC-WIFI7</t>
+          <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D94" t="n">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="E94" t="n">
-        <v>793</v>
+        <v>676</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0CTTWH6TD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRX50 AERO D</t>
+          <t>Z790 D AC</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="E95" t="n">
-        <v>264</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
+          <t>B0CTNPZLNH</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7</t>
+          <t>Z790 Eagle AX</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1140</v>
+        <v>310</v>
       </c>
       <c r="D96" t="n">
-        <v>2153</v>
+        <v>653</v>
       </c>
       <c r="E96" t="n">
-        <v>4124</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
+          <t>B0D8WH39QJ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
+          <t>Z790 GAMING PLUS AX</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>679</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>1357</v>
+        <v>106</v>
       </c>
       <c r="E97" t="n">
-        <v>2772</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
+          <t>B0D2RL4PT6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>X870 EAGLE WIFI7</t>
+          <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>863</v>
+        <v>442</v>
       </c>
       <c r="D98" t="n">
-        <v>1780</v>
+        <v>941</v>
       </c>
       <c r="E98" t="n">
-        <v>3386</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B0DHWLN5XT</t>
+          <t>B0D2PK3CC1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>X870 GAMING WIFI6</t>
+          <t>Z790M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>445</v>
+        <v>201</v>
       </c>
       <c r="D99" t="n">
-        <v>901</v>
+        <v>417</v>
       </c>
       <c r="E99" t="n">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>B0DGVGT3PJ</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>X870 GAMING X WIFI7</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>376</v>
-      </c>
-      <c r="D100" t="n">
-        <v>720</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>536</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1055</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>B0DGVSW4FD</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>X870E AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>218</v>
-      </c>
-      <c r="D102" t="n">
-        <v>453</v>
-      </c>
-      <c r="E102" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>B0DGVGV7YN</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>X870E AORUS PRO</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>270</v>
-      </c>
-      <c r="D103" t="n">
-        <v>545</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>B0DGVBSLLP</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>X870E AORUS PRO ICE</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>667</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1428</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>B0CTTVFWHM</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Z790 AORUS PRO X WIFI7</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>138</v>
-      </c>
-      <c r="D105" t="n">
-        <v>282</v>
-      </c>
-      <c r="E105" t="n">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>B0CTTWH6TD</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Z790 D AC</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>16</v>
-      </c>
-      <c r="D106" t="n">
-        <v>33</v>
-      </c>
-      <c r="E106" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>B0CTNPZLNH</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Z790 Eagle AX</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>246</v>
-      </c>
-      <c r="D107" t="n">
-        <v>517</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>B0D8WH39QJ</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Z790 GAMING PLUS AX</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>59</v>
-      </c>
-      <c r="D108" t="n">
-        <v>145</v>
-      </c>
-      <c r="E108" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>376</v>
-      </c>
-      <c r="D109" t="n">
-        <v>756</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>B0D2PK3CC1</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Z790M AORUS ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>174</v>
-      </c>
-      <c r="D110" t="n">
-        <v>359</v>
-      </c>
-      <c r="E110" t="n">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>24</v>
-      </c>
-      <c r="D111" t="n">
-        <v>45</v>
-      </c>
-      <c r="E111" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>B0DJP95MGB</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Z890 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>137</v>
-      </c>
-      <c r="D112" t="n">
-        <v>274</v>
-      </c>
-      <c r="E112" t="n">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>B0DJP7NRXX</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Z890 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>63</v>
-      </c>
-      <c r="D113" t="n">
-        <v>121</v>
-      </c>
-      <c r="E113" t="n">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>B0DJP76L1F</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Z890 AORUS ELITE X ICE</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>12</v>
-      </c>
-      <c r="D114" t="n">
-        <v>24</v>
-      </c>
-      <c r="E114" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>B0DJP9LCYC</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Z890 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>25</v>
-      </c>
-      <c r="D115" t="n">
-        <v>49</v>
-      </c>
-      <c r="E115" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>B0DJP8NFWP</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Z890 AORUS PRO ICE</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>38</v>
-      </c>
-      <c r="D116" t="n">
-        <v>70</v>
-      </c>
-      <c r="E116" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>B0DJP8MMMJ</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Z890 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>34</v>
-      </c>
-      <c r="D117" t="n">
-        <v>66</v>
-      </c>
-      <c r="E117" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>B0DJP9DBVS</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Z890 GAMING X WIFI7</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>15</v>
-      </c>
-      <c r="D118" t="n">
-        <v>31</v>
-      </c>
-      <c r="E118" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>B0DJP8W3BY</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Z890 UD WIFI6E</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>58</v>
-      </c>
-      <c r="D119" t="n">
-        <v>115</v>
-      </c>
-      <c r="E119" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>B0DJP82ML2</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Z890I AORUS ULTRA</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>38</v>
-      </c>
-      <c r="D120" t="n">
-        <v>76</v>
-      </c>
-      <c r="E120" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>47</v>
-      </c>
-      <c r="D121" t="n">
-        <v>92</v>
-      </c>
-      <c r="E121" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>B0DJP9FZYK</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Z890M GAMING X</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>39</v>
-      </c>
-      <c r="D122" t="n">
-        <v>77</v>
-      </c>
-      <c r="E122" t="n">
-        <v>156</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -493,2029 +493,2911 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="D3" t="n">
-        <v>1490</v>
+        <v>1359</v>
       </c>
       <c r="E3" t="n">
-        <v>2788</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B09JZFT4SN</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z690 AORUS ULTRA</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09JZGTYXJ</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z690 UD AX DDR4</t>
+          <t>Z690 AORUS ULTRA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B07T6N8N56</t>
+          <t>B09JZGTYXJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B365M DS3H</t>
+          <t>Z690 UD AX DDR4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
+          <t>B07T6N8N56</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B550M DS3H AC</t>
+          <t>B365M DS3H</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B0BH6XND27</t>
+          <t>B08R5736B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
+          <t>B550M DS3H AC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>409</v>
+        <v>243</v>
       </c>
       <c r="D8" t="n">
-        <v>1032</v>
+        <v>486</v>
       </c>
       <c r="E8" t="n">
-        <v>2142</v>
+        <v>927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
+          <t>B0BH6XND27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H610I DDR4</t>
+          <t>B650M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>1023</v>
       </c>
       <c r="E9" t="n">
-        <v>116</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B083NK82QJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B550 GAMING X V2</t>
+          <t>H610I DDR4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>507</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>1065</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>1982</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B08KWMXGQW</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B550M DS3H</t>
+          <t>B450M DS3H V2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GC-WB1733D-I</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>770</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>1255</v>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B089FY7QT1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550M DS3H</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2400</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>4951</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>10313</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B07GBM3M88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GC-WBAX200</t>
+          <t>GC-WB1733D-I</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>360</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>705</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>2385</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>4813</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B07VNBC5PS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Z690 AERO G</t>
+          <t>GC-WBAX200</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Z790 AERO G</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z790 UD AC</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>926</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B0BH9BBLHB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B450M DS3H</t>
+          <t>Z790 AERO G</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B0BHTMXMRQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z790 UD AC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>497</v>
+        <v>226</v>
       </c>
       <c r="D20" t="n">
-        <v>1007</v>
+        <v>435</v>
       </c>
       <c r="E20" t="n">
-        <v>1968</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B07FWVJSHC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B450 AORUS PRO WIFI</t>
+          <t>B450M DS3H</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B450M DS3H WIFI</t>
+          <t>A520I AC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="D22" t="n">
-        <v>1049</v>
+        <v>972</v>
       </c>
       <c r="E22" t="n">
-        <v>2057</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Z690 GAMING X DDR4</t>
+          <t>B450 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>B450M DS3H WIFI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>610</v>
+        <v>396</v>
       </c>
       <c r="D24" t="n">
-        <v>1687</v>
+        <v>781</v>
       </c>
       <c r="E24" t="n">
-        <v>3830</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B08WPV5HS7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GA-A320M-S2H</t>
+          <t>Z590 AORUS ELITE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A520M S2H</t>
+          <t>Z690 GAMING X DDR4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>557</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>927</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1930</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
+          <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>55</v>
+        <v>1214</v>
       </c>
       <c r="D27" t="n">
-        <v>99</v>
+        <v>2222</v>
       </c>
       <c r="E27" t="n">
-        <v>204</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>457</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>X570 AORUS ELITE WIFI</t>
+          <t>A520M S2H</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>677</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>1209</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B760M DS3H DDR4</t>
+          <t>B550I AORUS PRO AX</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>606</v>
+        <v>209</v>
       </c>
       <c r="D30" t="n">
-        <v>1222</v>
+        <v>387</v>
       </c>
       <c r="E30" t="n">
-        <v>2402</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>X670 AORUS ELITE AX</t>
+          <t>Z790 AORUS MASTER</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>557</v>
+        <v>91</v>
       </c>
       <c r="D31" t="n">
-        <v>1086</v>
+        <v>159</v>
       </c>
       <c r="E31" t="n">
-        <v>2272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B07WL5MFXL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>X570 AORUS ELITE WIFI</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Z390 UD</t>
+          <t>B760M DS3H DDR4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Z590 AORUS TACHYON</t>
+          <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE</t>
+          <t>X670E AORUS MASTER</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B650 AERO G</t>
+          <t>Z390 UD</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B650 AORUS ELITE AX</t>
+          <t>Z590 AORUS TACHYON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2638</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5130</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B660M A ELITE AX DDR4</t>
+          <t>B550M AORUS ELITE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B760M AORUS ELITE AX</t>
+          <t>B650 AERO G</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Z490 AORUS MASTER</t>
+          <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2554</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4433</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Z790 GAMING X AX</t>
+          <t>B660M A ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>251</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B760 DS3H AC DDR4</t>
+          <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>363</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO DDR4</t>
+          <t>Z490 AORUS MASTER</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B760M DS3H AX</t>
+          <t>Z790 GAMING X AX</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="D44" t="n">
-        <v>854</v>
+        <v>89</v>
       </c>
       <c r="E44" t="n">
-        <v>1592</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B760M DS3H AX DDR4</t>
+          <t>B760 DS3H AC DDR4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Z690 AORUS ELITE AX DDR4</t>
+          <t>B760I AORUS PRO DDR4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B550 UD AC</t>
+          <t>B760M DS3H AX</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="D47" t="n">
-        <v>184</v>
+        <v>802</v>
       </c>
       <c r="E47" t="n">
-        <v>389</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B550M K</t>
+          <t>B760M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>903</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1859</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>3003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B09J6BWK2Z</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H610M S2H V2 DDR4</t>
+          <t>Z690 AORUS ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>429</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>837</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>B550 UD AC</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B650I AORUS ULTRA</t>
+          <t>B550M K</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>238</v>
+        <v>874</v>
       </c>
       <c r="D51" t="n">
-        <v>502</v>
+        <v>1656</v>
       </c>
       <c r="E51" t="n">
-        <v>1007</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B07STNZF9L</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B760 AORUS ELITE AX</t>
+          <t>X570 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Z790 UD AX</t>
+          <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Z790I AORUS ULTRA</t>
+          <t>Z790 D DDR4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Z690 AORUS MASTER</t>
+          <t>B650I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX</t>
+          <t>B760 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>619</v>
+        <v>136</v>
       </c>
       <c r="D56" t="n">
-        <v>1389</v>
+        <v>261</v>
       </c>
       <c r="E56" t="n">
-        <v>2949</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B760 GAMING X AX</t>
+          <t>Z790 UD AX</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>340</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO</t>
+          <t>Z790I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>301</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B760M C</t>
+          <t>Z690 AORUS MASTER</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>454</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>821</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE AX</t>
+          <t>B650 GAMING X AX</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>239</v>
+        <v>503</v>
       </c>
       <c r="D60" t="n">
-        <v>488</v>
+        <v>1128</v>
       </c>
       <c r="E60" t="n">
-        <v>970</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Q670M D3H</t>
+          <t>B760 GAMING X AX</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E61" t="n">
-        <v>21</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A620M S2H</t>
+          <t>B760I AORUS PRO</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D62" t="n">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="E62" t="n">
-        <v>514</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B650M K</t>
+          <t>B760M C</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>407</v>
       </c>
       <c r="E63" t="n">
-        <v>67</v>
+        <v>792</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H610I</t>
+          <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="D64" t="n">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="E64" t="n">
-        <v>558</v>
+        <v>899</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H610M S2H</t>
+          <t>Q670M D3H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>424</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>756</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>A620M S2H</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="E66" t="n">
-        <v>22</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B650M D3HP</t>
+          <t>B650M K</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>594</v>
+        <v>31</v>
       </c>
       <c r="E67" t="n">
-        <v>1201</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Z790 A ELITE X WIFI7</t>
+          <t>H610I</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D68" t="n">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E68" t="n">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>H610M S2H</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="D69" t="n">
-        <v>402</v>
+        <v>295</v>
       </c>
       <c r="E69" t="n">
-        <v>787</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>A620M GAMING X</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>656</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>1328</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>X670 GAMING X AX V2</t>
+          <t>B650M D3HP</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D71" t="n">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="E71" t="n">
-        <v>1042</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="D72" t="n">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="E72" t="n">
-        <v>95</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Z790 A ELITE AX ICE</t>
+          <t>Z790 AORUS PRO X</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D73" t="n">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="E73" t="n">
-        <v>613</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>A620I AX</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="D74" t="n">
-        <v>205</v>
+        <v>424</v>
       </c>
       <c r="E74" t="n">
-        <v>368</v>
+        <v>843</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B650 A ELITE AX ICE</t>
+          <t>X670 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1334</v>
+        <v>183</v>
       </c>
       <c r="D75" t="n">
-        <v>2776</v>
+        <v>372</v>
       </c>
       <c r="E75" t="n">
-        <v>5404</v>
+        <v>751</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650M C V2                    </t>
+          <t>X670E AORUS PRO X</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E76" t="n">
-        <v>31</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+          <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>474</v>
+        <v>116</v>
       </c>
       <c r="D77" t="n">
-        <v>993</v>
+        <v>266</v>
       </c>
       <c r="E77" t="n">
-        <v>2154</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">B760M D3H                     </t>
+          <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E78" t="n">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>92</v>
+        <v>1084</v>
       </c>
       <c r="D79" t="n">
-        <v>204</v>
+        <v>2256</v>
       </c>
       <c r="E79" t="n">
-        <v>428</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B09SVZRM13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B550 AORUS ELITE AX V3</t>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B650 EAGLE AX</t>
+          <t xml:space="preserve">B650M C V2                    </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2526</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>5263</v>
+        <v>14</v>
       </c>
       <c r="E81" t="n">
-        <v>11200</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX V2</t>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>54</v>
+        <v>464</v>
       </c>
       <c r="D82" t="n">
-        <v>109</v>
+        <v>971</v>
       </c>
       <c r="E82" t="n">
-        <v>223</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B650 UD AC</t>
+          <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D83" t="n">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="E83" t="n">
-        <v>54</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B650E AORUS Elite X AX ICE</t>
+          <t>A620M GAMING X AX</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="D84" t="n">
-        <v>420</v>
+        <v>154</v>
       </c>
       <c r="E84" t="n">
-        <v>934</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX ICE</t>
+          <t>B550 AORUS ELITE AX V3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="D85" t="n">
-        <v>542</v>
+        <v>333</v>
       </c>
       <c r="E85" t="n">
-        <v>1234</v>
+        <v>699</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B650M C V3</t>
+          <t>B650 EAGLE AX</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3646</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>6634</v>
       </c>
       <c r="E86" t="n">
-        <v>16</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0CTTY491F</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B650M D3HP AX</t>
+          <t>B650 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D87" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E87" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B650M GAMING PLUS WIFI</t>
+          <t>B650 UD AC</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>832</v>
+        <v>29</v>
       </c>
       <c r="E88" t="n">
-        <v>1716</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0DFHPZBGM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B760 DS3H AC</t>
+          <t>B650 UD AX</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E89" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B760 DS3H AX</t>
+          <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D90" t="n">
-        <v>21</v>
+        <v>391</v>
       </c>
       <c r="E90" t="n">
-        <v>41</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B760M GAMING PLUS WIFI DDR4</t>
+          <t>B650M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>624</v>
+        <v>318</v>
       </c>
       <c r="D91" t="n">
-        <v>1245</v>
+        <v>667</v>
       </c>
       <c r="E91" t="n">
-        <v>2427</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GC-WIFI7</t>
+          <t>B650M C V3</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>422</v>
+        <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>885</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRX50 AERO D</t>
+          <t>B650M D3HP AX</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E93" t="n">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0CTTVFWHM</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X WIFI7</t>
+          <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>171</v>
+        <v>370</v>
       </c>
       <c r="D94" t="n">
-        <v>340</v>
+        <v>746</v>
       </c>
       <c r="E94" t="n">
-        <v>676</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0CTTWH6TD</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Z790 D AC</t>
+          <t>B760 DS3H AC</t>
         </is>
       </c>
       <c r="C95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" t="n">
         <v>15</v>
       </c>
-      <c r="D95" t="n">
-        <v>32</v>
-      </c>
       <c r="E95" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0CTNPZLNH</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Z790 Eagle AX</t>
+          <t>B760 DS3H AX</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
-        <v>653</v>
+        <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>1365</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0D8WH39QJ</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Z790 GAMING PLUS AX</t>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="D97" t="n">
-        <v>106</v>
+        <v>717</v>
       </c>
       <c r="E97" t="n">
-        <v>263</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Z790 S WIFI DDR4</t>
+          <t>GC-WIFI7</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>442</v>
+        <v>213</v>
       </c>
       <c r="D98" t="n">
-        <v>941</v>
+        <v>384</v>
       </c>
       <c r="E98" t="n">
-        <v>2033</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>54</v>
+      </c>
+      <c r="D99" t="n">
+        <v>109</v>
+      </c>
+      <c r="E99" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2327</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>908</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>981</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>445</v>
+      </c>
+      <c r="D103" t="n">
+        <v>901</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>467</v>
+      </c>
+      <c r="D104" t="n">
+        <v>953</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>627</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>277</v>
+      </c>
+      <c r="D106" t="n">
+        <v>558</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>320</v>
+      </c>
+      <c r="D107" t="n">
+        <v>666</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>940</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>116</v>
+      </c>
+      <c r="D109" t="n">
+        <v>253</v>
+      </c>
+      <c r="E109" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>15</v>
+      </c>
+      <c r="D110" t="n">
+        <v>31</v>
+      </c>
+      <c r="E110" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>241</v>
+      </c>
+      <c r="D111" t="n">
+        <v>529</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>59</v>
+      </c>
+      <c r="D112" t="n">
+        <v>118</v>
+      </c>
+      <c r="E112" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>464</v>
+      </c>
+      <c r="D113" t="n">
+        <v>961</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>B0D2PK3CC1</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Z790M AORUS ELITE AX ICE</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>201</v>
-      </c>
-      <c r="D99" t="n">
-        <v>417</v>
-      </c>
-      <c r="E99" t="n">
-        <v>887</v>
+      <c r="C114" t="n">
+        <v>179</v>
+      </c>
+      <c r="D114" t="n">
+        <v>390</v>
+      </c>
+      <c r="E114" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>29</v>
+      </c>
+      <c r="D115" t="n">
+        <v>57</v>
+      </c>
+      <c r="E115" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>120</v>
+      </c>
+      <c r="D116" t="n">
+        <v>239</v>
+      </c>
+      <c r="E116" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>74</v>
+      </c>
+      <c r="D117" t="n">
+        <v>144</v>
+      </c>
+      <c r="E117" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>20</v>
+      </c>
+      <c r="E118" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>21</v>
+      </c>
+      <c r="D119" t="n">
+        <v>44</v>
+      </c>
+      <c r="E119" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>35</v>
+      </c>
+      <c r="D120" t="n">
+        <v>66</v>
+      </c>
+      <c r="E120" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>39</v>
+      </c>
+      <c r="D121" t="n">
+        <v>74</v>
+      </c>
+      <c r="E121" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>14</v>
+      </c>
+      <c r="D122" t="n">
+        <v>28</v>
+      </c>
+      <c r="E122" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>62</v>
+      </c>
+      <c r="D123" t="n">
+        <v>127</v>
+      </c>
+      <c r="E123" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>33</v>
+      </c>
+      <c r="D124" t="n">
+        <v>66</v>
+      </c>
+      <c r="E124" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>53</v>
+      </c>
+      <c r="D125" t="n">
+        <v>108</v>
+      </c>
+      <c r="E125" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>48</v>
+      </c>
+      <c r="D126" t="n">
+        <v>95</v>
+      </c>
+      <c r="E126" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>17</v>
+      </c>
+      <c r="D128" t="n">
+        <v>52</v>
+      </c>
+      <c r="E128" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>284</v>
+      </c>
+      <c r="D129" t="n">
+        <v>607</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>331</v>
+      </c>
+      <c r="D130" t="n">
+        <v>711</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>232</v>
+      </c>
+      <c r="D131" t="n">
+        <v>503</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>44</v>
+      </c>
+      <c r="D132" t="n">
+        <v>101</v>
+      </c>
+      <c r="E132" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>74</v>
+      </c>
+      <c r="D133" t="n">
+        <v>163</v>
+      </c>
+      <c r="E133" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>165</v>
+      </c>
+      <c r="D134" t="n">
+        <v>369</v>
+      </c>
+      <c r="E134" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>435</v>
+      </c>
+      <c r="D135" t="n">
+        <v>940</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>90</v>
+      </c>
+      <c r="D136" t="n">
+        <v>205</v>
+      </c>
+      <c r="E136" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>226</v>
+      </c>
+      <c r="D137" t="n">
+        <v>489</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>35</v>
+      </c>
+      <c r="E138" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>39</v>
+      </c>
+      <c r="E139" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>42</v>
+      </c>
+      <c r="E140" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>35</v>
+      </c>
+      <c r="E141" t="n">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D3" t="n">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="E3" t="n">
-        <v>2506</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D8" t="n">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="E8" t="n">
-        <v>927</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D12" t="n">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E12" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="13">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2385</v>
+        <v>2395</v>
       </c>
       <c r="D15" t="n">
-        <v>4813</v>
+        <v>4843</v>
       </c>
       <c r="E15" t="n">
-        <v>9933</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D20" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E20" t="n">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D22" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E22" t="n">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="23">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="D24" t="n">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="E24" t="n">
-        <v>1480</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="25">
@@ -1045,7 +1045,7 @@
         <v>1209</v>
       </c>
       <c r="E29" t="n">
-        <v>1946</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="D30" t="n">
-        <v>387</v>
+        <v>98</v>
       </c>
       <c r="E30" t="n">
-        <v>665</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40">
@@ -1273,10 +1273,10 @@
         <v>2554</v>
       </c>
       <c r="D40" t="n">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="E40" t="n">
-        <v>7309</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="41">
@@ -1420,10 +1420,10 @@
         <v>443</v>
       </c>
       <c r="D47" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E47" t="n">
-        <v>1380</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="48">
@@ -1486,7 +1486,7 @@
         <v>141</v>
       </c>
       <c r="E50" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" t="n">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E53" t="n">
-        <v>809</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" t="n">
         <v>356</v>
       </c>
       <c r="E55" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E58" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1717,7 +1717,7 @@
         <v>132</v>
       </c>
       <c r="E61" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D64" t="n">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="E64" t="n">
-        <v>899</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D68" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="E68" t="n">
-        <v>383</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E69" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="D74" t="n">
-        <v>424</v>
+        <v>617</v>
       </c>
       <c r="E74" t="n">
-        <v>843</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="D75" t="n">
-        <v>372</v>
+        <v>501</v>
       </c>
       <c r="E75" t="n">
-        <v>751</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D76" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77">
@@ -2053,7 +2053,7 @@
         <v>266</v>
       </c>
       <c r="E77" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D83" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E83" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E87" t="n">
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E88" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
@@ -2386,10 +2386,10 @@
         <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E93" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="D94" t="n">
-        <v>746</v>
+        <v>1063</v>
       </c>
       <c r="E94" t="n">
-        <v>1474</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="95">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1210</v>
+        <v>1184</v>
       </c>
       <c r="D100" t="n">
-        <v>2327</v>
+        <v>2275</v>
       </c>
       <c r="E100" t="n">
-        <v>4583</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>908</v>
+        <v>758</v>
       </c>
       <c r="D101" t="n">
-        <v>1988</v>
+        <v>1550</v>
       </c>
       <c r="E101" t="n">
-        <v>4593</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="102">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D105" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E105" t="n">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="106">
@@ -2743,10 +2743,10 @@
         <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E110" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D115" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E115" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D116" t="n">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E116" t="n">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E118" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D119" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E119" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D120" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E120" t="n">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D121" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E121" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E122" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D123" t="n">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E123" t="n">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D124" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E124" t="n">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D125" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E125" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E126" t="n">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D128" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E128" t="n">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="D129" t="n">
-        <v>607</v>
+        <v>251</v>
       </c>
       <c r="E129" t="n">
-        <v>1300</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>331</v>
+        <v>176</v>
       </c>
       <c r="D130" t="n">
-        <v>711</v>
+        <v>400</v>
       </c>
       <c r="E130" t="n">
-        <v>1537</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="D131" t="n">
-        <v>503</v>
+        <v>279</v>
       </c>
       <c r="E131" t="n">
-        <v>1104</v>
+        <v>656</v>
       </c>
     </row>
     <row r="132">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E132" t="n">
-        <v>238</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D133" t="n">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="E133" t="n">
-        <v>363</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="D134" t="n">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="E134" t="n">
-        <v>820</v>
+        <v>574</v>
       </c>
     </row>
     <row r="135">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="D135" t="n">
-        <v>940</v>
+        <v>627</v>
       </c>
       <c r="E135" t="n">
-        <v>2060</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="136">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D136" t="n">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="E136" t="n">
-        <v>471</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="D137" t="n">
-        <v>489</v>
+        <v>251</v>
       </c>
       <c r="E137" t="n">
-        <v>1077</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D3" t="n">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="E3" t="n">
-        <v>2527</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -604,7 +604,7 @@
         <v>526</v>
       </c>
       <c r="E8" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="D9" t="n">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="E9" t="n">
-        <v>2060</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="10">
@@ -646,543 +646,543 @@
         <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B08KWMXGQW</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B450M DS3H V2</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B089FY7QT1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B550 GAMING X V2</t>
+          <t>B550M DS3H</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>771</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1256</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>2020</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B07GBM3M88</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B550M DS3H</t>
+          <t>GC-WB1733D-I</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GC-WB1733D-I</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>2423</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>4892</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>10059</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B07VNBC5PS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>GC-WBAX200</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2395</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
-        <v>4843</v>
+        <v>341</v>
       </c>
       <c r="E15" t="n">
-        <v>9984</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GC-WBAX200</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>502</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B0BH9BBLHB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z690 AERO G</t>
+          <t>Z790 AERO G</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B0BHTMXMRQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Z790 AERO G</t>
+          <t>Z790 UD AC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>389</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B07FWVJSHC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Z790 UD AC</t>
+          <t>B450M DS3H</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>436</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>844</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B450M DS3H</t>
+          <t>A520I AC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>464</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>972</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>B450 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>975</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>1802</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B450 AORUS PRO WIFI</t>
+          <t>B450M DS3H WIFI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>442</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>872</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B08WPV5HS7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B450M DS3H WIFI</t>
+          <t>Z590 AORUS ELITE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>872</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B08WPV5HS7</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Z590 AORUS ELITE</t>
+          <t>Z690 GAMING X DDR4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Z690 GAMING X DDR4</t>
+          <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>1074</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2070</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1214</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2222</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>3994</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GA-A320M-S2H</t>
+          <t>A520M S2H</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1209</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A520M S2H</t>
+          <t>B550I AORUS PRO AX</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>677</v>
+        <v>53</v>
       </c>
       <c r="D29" t="n">
-        <v>1209</v>
+        <v>98</v>
       </c>
       <c r="E29" t="n">
-        <v>1950</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
+          <t>Z790 AORUS MASTER</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D30" t="n">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="E30" t="n">
-        <v>176</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B07WL5MFXL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER</t>
+          <t>X570 AORUS ELITE WIFI</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>287</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X570 AORUS ELITE WIFI</t>
+          <t>B760M DS3H DDR4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>755</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>1426</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B760M DS3H DDR4</t>
+          <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>755</v>
+        <v>616</v>
       </c>
       <c r="D33" t="n">
-        <v>1426</v>
+        <v>1153</v>
       </c>
       <c r="E33" t="n">
-        <v>2679</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>X670 AORUS ELITE AX</t>
+          <t>X670E AORUS MASTER</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>616</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>1153</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
-        <v>2181</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>Z390 UD</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Z390 UD</t>
+          <t>Z590 AORUS TACHYON</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1198,2205 +1198,2163 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Z590 AORUS TACHYON</t>
+          <t>B550M AORUS ELITE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE</t>
+          <t>B650 AERO G</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B650 AERO G</t>
+          <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48</v>
+        <v>2554</v>
       </c>
       <c r="D39" t="n">
-        <v>108</v>
+        <v>4450</v>
       </c>
       <c r="E39" t="n">
-        <v>238</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B650 AORUS ELITE AX</t>
+          <t>B660M A ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2554</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4432</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>7306</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B660M A ELITE AX DDR4</t>
+          <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B760M AORUS ELITE AX</t>
+          <t>Z490 AORUS MASTER</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Z490 AORUS MASTER</t>
+          <t>Z790 GAMING X AX</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Z790 GAMING X AX</t>
+          <t>B760 DS3H AC DDR4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D44" t="n">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="E44" t="n">
-        <v>171</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B760 DS3H AC DDR4</t>
+          <t>B760I AORUS PRO DDR4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>295</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO DDR4</t>
+          <t>B760M DS3H AX</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="D46" t="n">
-        <v>26</v>
+        <v>804</v>
       </c>
       <c r="E46" t="n">
-        <v>51</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B760M DS3H AX</t>
+          <t>B760M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>443</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>804</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>1386</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B09J6BWK2Z</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B760M DS3H AX DDR4</t>
+          <t>Z690 AORUS ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Z690 AORUS ELITE AX DDR4</t>
+          <t>B550 UD AC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B550 UD AC</t>
+          <t>B550M K</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>58</v>
+        <v>874</v>
       </c>
       <c r="D50" t="n">
-        <v>141</v>
+        <v>1656</v>
       </c>
       <c r="E50" t="n">
-        <v>307</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B07STNZF9L</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B550M K</t>
+          <t>X570 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1656</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>2906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B07STNZF9L</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>X570 AORUS PRO WIFI</t>
+          <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H610M S2H V2 DDR4</t>
+          <t>Z790 D DDR4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>398</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>775</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>B650I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>408</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B650I AORUS ULTRA</t>
+          <t>B760 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="D55" t="n">
-        <v>356</v>
+        <v>261</v>
       </c>
       <c r="E55" t="n">
-        <v>647</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B760 AORUS ELITE AX</t>
+          <t>Z790 UD AX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>261</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Z790 UD AX</t>
+          <t>Z790I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Z790I AORUS ULTRA</t>
+          <t>Z690 AORUS MASTER</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Z690 AORUS MASTER</t>
+          <t>B650 GAMING X AX</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1128</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX</t>
+          <t>B760 GAMING X AX</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>503</v>
+        <v>70</v>
       </c>
       <c r="D60" t="n">
-        <v>1128</v>
+        <v>138</v>
       </c>
       <c r="E60" t="n">
-        <v>2396</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B760 GAMING X AX</t>
+          <t>B760I AORUS PRO</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D61" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E61" t="n">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO</t>
+          <t>B760M C</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="D62" t="n">
-        <v>124</v>
+        <v>407</v>
       </c>
       <c r="E62" t="n">
-        <v>241</v>
+        <v>792</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B760M C</t>
+          <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="D63" t="n">
-        <v>407</v>
+        <v>518</v>
       </c>
       <c r="E63" t="n">
-        <v>792</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE AX</t>
+          <t>Q670M D3H</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>256</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>518</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1025</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Q670M D3H</t>
+          <t>A620M S2H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="E65" t="n">
-        <v>19</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A620M S2H</t>
+          <t>B650M K</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="E66" t="n">
-        <v>471</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B650M K</t>
+          <t>H610I</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="D67" t="n">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="E67" t="n">
-        <v>58</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H610I</t>
+          <t>H610M S2H</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D68" t="n">
-        <v>288</v>
+        <v>381</v>
       </c>
       <c r="E68" t="n">
-        <v>524</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H610M S2H</t>
+          <t>A620M GAMING X</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
-        <v>597</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>B650M D3HP</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>590</v>
       </c>
       <c r="E70" t="n">
-        <v>18</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B650M D3HP</t>
+          <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
       <c r="C71" t="n">
+        <v>144</v>
+      </c>
+      <c r="D71" t="n">
         <v>281</v>
       </c>
-      <c r="D71" t="n">
-        <v>590</v>
-      </c>
       <c r="E71" t="n">
-        <v>1179</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Z790 A ELITE X WIFI7</t>
+          <t>Z790 AORUS PRO X</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D72" t="n">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="E72" t="n">
-        <v>543</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>A620I AX</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="D73" t="n">
-        <v>326</v>
+        <v>617</v>
       </c>
       <c r="E73" t="n">
-        <v>640</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>X670 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="D74" t="n">
-        <v>617</v>
+        <v>501</v>
       </c>
       <c r="E74" t="n">
-        <v>1206</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>X670 GAMING X AX V2</t>
+          <t>X670E AORUS PRO X</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="D75" t="n">
-        <v>501</v>
+        <v>99</v>
       </c>
       <c r="E75" t="n">
-        <v>1037</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D76" t="n">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="E76" t="n">
-        <v>210</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Z790 A ELITE AX ICE</t>
+          <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D77" t="n">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="E77" t="n">
-        <v>500</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>104</v>
+        <v>1084</v>
       </c>
       <c r="D78" t="n">
-        <v>203</v>
+        <v>2256</v>
       </c>
       <c r="E78" t="n">
-        <v>396</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B650 A ELITE AX ICE</t>
+          <t xml:space="preserve">B650M C V2                    </t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1084</v>
+        <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>2256</v>
+        <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>4460</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650M C V2                    </t>
+          <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="E81" t="n">
-        <v>31</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+          <t>A620M GAMING X AX</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>464</v>
+        <v>75</v>
       </c>
       <c r="D82" t="n">
-        <v>971</v>
+        <v>163</v>
       </c>
       <c r="E82" t="n">
-        <v>1981</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">B760M D3H                     </t>
+          <t>B550 AORUS ELITE AX V3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D83" t="n">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="E83" t="n">
-        <v>340</v>
+        <v>699</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B650 EAGLE AX</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>3646</v>
       </c>
       <c r="D84" t="n">
-        <v>154</v>
+        <v>6634</v>
       </c>
       <c r="E84" t="n">
-        <v>336</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B0CTTY491F</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B550 AORUS ELITE AX V3</t>
+          <t>B650 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="D85" t="n">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="E85" t="n">
-        <v>699</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B650 EAGLE AX</t>
+          <t>B650 UD AC</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3646</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>6634</v>
+        <v>30</v>
       </c>
       <c r="E86" t="n">
-        <v>11540</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B0DFHPZBGM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX V2</t>
+          <t>B650 UD AX</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E87" t="n">
-        <v>168</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B650 UD AC</t>
+          <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="D88" t="n">
-        <v>30</v>
+        <v>391</v>
       </c>
       <c r="E88" t="n">
-        <v>60</v>
+        <v>827</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B650 UD AX</t>
+          <t>B650M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="D89" t="n">
-        <v>34</v>
+        <v>667</v>
       </c>
       <c r="E89" t="n">
-        <v>72</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B650E AORUS Elite X AX ICE</t>
+          <t>B650M C V3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>827</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX ICE</t>
+          <t>B650M D3HP AX</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="D91" t="n">
-        <v>667</v>
+        <v>84</v>
       </c>
       <c r="E91" t="n">
-        <v>1301</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B650M C V3</t>
+          <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>514</v>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>1063</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B650M D3HP AX</t>
+          <t>B760 DS3H AC</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>174</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B650M GAMING PLUS WIFI</t>
+          <t>B760 DS3H AX</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>514</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>1063</v>
+        <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>2036</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B760 DS3H AC</t>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>717</v>
       </c>
       <c r="E95" t="n">
-        <v>31</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B760 DS3H AX</t>
+          <t>GC-WIFI7</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="D96" t="n">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="E96" t="n">
-        <v>38</v>
+        <v>709</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B0CPW1F841</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B760M GAMING PLUS WIFI DDR4</t>
+          <t>TRX50 AERO D</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>331</v>
+        <v>54</v>
       </c>
       <c r="D97" t="n">
-        <v>717</v>
+        <v>109</v>
       </c>
       <c r="E97" t="n">
-        <v>1593</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0DGVC3DDW</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GC-WIFI7</t>
+          <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>213</v>
+        <v>1141</v>
       </c>
       <c r="D98" t="n">
-        <v>384</v>
+        <v>2280</v>
       </c>
       <c r="E98" t="n">
-        <v>748</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0DGVGRVLQ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRX50 AERO D</t>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="D99" t="n">
-        <v>109</v>
+        <v>1711</v>
       </c>
       <c r="E99" t="n">
-        <v>198</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
+          <t>B0DGVMYTW6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7</t>
+          <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1184</v>
+        <v>1238</v>
       </c>
       <c r="D100" t="n">
-        <v>2275</v>
+        <v>2218</v>
       </c>
       <c r="E100" t="n">
-        <v>4479</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
+          <t>B0DHWLN5XT</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
+          <t>X870 GAMING WIFI6</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>758</v>
+        <v>425</v>
       </c>
       <c r="D101" t="n">
-        <v>1550</v>
+        <v>881</v>
       </c>
       <c r="E101" t="n">
-        <v>3223</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
+          <t>B0DGVGT3PJ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>X870 EAGLE WIFI7</t>
+          <t>X870 GAMING X WIFI7</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>981</v>
+        <v>381</v>
       </c>
       <c r="D102" t="n">
-        <v>1961</v>
+        <v>740</v>
       </c>
       <c r="E102" t="n">
-        <v>3755</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>B0DHWLN5XT</t>
+          <t>B0DGVBM73J</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>X870 GAMING WIFI6</t>
+          <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>445</v>
+        <v>652</v>
       </c>
       <c r="D103" t="n">
-        <v>901</v>
+        <v>1298</v>
       </c>
       <c r="E103" t="n">
-        <v>1814</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>B0DGVGT3PJ</t>
+          <t>B0DGVSW4FD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>X870 GAMING X WIFI7</t>
+          <t>X870E AORUS MASTER</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>467</v>
+        <v>272</v>
       </c>
       <c r="D104" t="n">
-        <v>953</v>
+        <v>553</v>
       </c>
       <c r="E104" t="n">
-        <v>1902</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
+          <t>B0DGVGV7YN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>X870E AORUS ELITE WIFI7</t>
+          <t>X870E AORUS PRO</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>626</v>
+        <v>228</v>
       </c>
       <c r="D105" t="n">
-        <v>1242</v>
+        <v>462</v>
       </c>
       <c r="E105" t="n">
-        <v>2505</v>
+        <v>935</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>B0DGVSW4FD</t>
+          <t>B0DGVBSLLP</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>X870E AORUS MASTER</t>
+          <t>X870E AORUS PRO ICE</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>277</v>
+        <v>627</v>
       </c>
       <c r="D106" t="n">
-        <v>558</v>
+        <v>1257</v>
       </c>
       <c r="E106" t="n">
-        <v>1122</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>B0DGVGV7YN</t>
+          <t>B0CTTVFWHM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>X870E AORUS PRO</t>
+          <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>320</v>
+        <v>116</v>
       </c>
       <c r="D107" t="n">
-        <v>666</v>
+        <v>253</v>
       </c>
       <c r="E107" t="n">
-        <v>1382</v>
+        <v>526</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>B0DGVBSLLP</t>
+          <t>B0CTTWH6TD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>X870E AORUS PRO ICE</t>
+          <t>Z790 D AC</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>940</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>1901</v>
+        <v>32</v>
       </c>
       <c r="E108" t="n">
-        <v>3860</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>B0CTTVFWHM</t>
+          <t>B0CTNPZLNH</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X WIFI7</t>
+          <t>Z790 Eagle AX</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="D109" t="n">
-        <v>253</v>
+        <v>491</v>
       </c>
       <c r="E109" t="n">
-        <v>526</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>B0CTTWH6TD</t>
+          <t>B0D8WH39QJ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Z790 D AC</t>
+          <t>Z790 GAMING PLUS AX</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D110" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="E110" t="n">
-        <v>65</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>B0CTNPZLNH</t>
+          <t>B0D2RL4PT6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Z790 Eagle AX</t>
+          <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>241</v>
+        <v>557</v>
       </c>
       <c r="D111" t="n">
-        <v>529</v>
+        <v>1054</v>
       </c>
       <c r="E111" t="n">
-        <v>1110</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>B0D8WH39QJ</t>
+          <t>B0D2PK3CC1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Z790 GAMING PLUS AX</t>
+          <t>Z790M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D112" t="n">
-        <v>118</v>
+        <v>390</v>
       </c>
       <c r="E112" t="n">
-        <v>283</v>
+        <v>774</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
+          <t>B0DJP9KLLD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Z790 S WIFI DDR4</t>
+          <t>Z890 AERO G</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>464</v>
+        <v>30</v>
       </c>
       <c r="D113" t="n">
-        <v>961</v>
+        <v>58</v>
       </c>
       <c r="E113" t="n">
-        <v>1723</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>B0D2PK3CC1</t>
+          <t>B0DJP95MGB</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Z790M AORUS ELITE AX ICE</t>
+          <t>Z890 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D114" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="E114" t="n">
-        <v>774</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
+          <t>B0DJP7NRXX</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Z890 AERO G</t>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D115" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E115" t="n">
-        <v>99</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>B0DJP95MGB</t>
+          <t>B0DJP76L1F</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE WIFI7</t>
+          <t>Z890 AORUS ELITE X ICE</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="E116" t="n">
-        <v>493</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>B0DJP7NRXX</t>
+          <t>B0DJP9LCYC</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+          <t>Z890 AORUS MASTER</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D117" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E117" t="n">
-        <v>290</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>B0DJP76L1F</t>
+          <t>B0DJP8NFWP</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE X ICE</t>
+          <t>Z890 AORUS PRO ICE</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D118" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E118" t="n">
-        <v>51</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>B0DJP9LCYC</t>
+          <t>B0DJP8MMMJ</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Z890 AORUS MASTER</t>
+          <t>Z890 EAGLE WIFI7</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D119" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E119" t="n">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>B0DJP8NFWP</t>
+          <t>B0DJP9DBVS</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Z890 AORUS PRO ICE</t>
+          <t>Z890 GAMING X WIFI7</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E120" t="n">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>B0DJP8MMMJ</t>
+          <t>B0DJP8W3BY</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Z890 EAGLE WIFI7</t>
+          <t>Z890 UD WIFI6E</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D121" t="n">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E121" t="n">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>B0DJP9DBVS</t>
+          <t>B0DJP82ML2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Z890 GAMING X WIFI7</t>
+          <t>Z890I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D122" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E122" t="n">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>B0DJP8W3BY</t>
+          <t>B0DJP8Q6JK</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Z890 UD WIFI6E</t>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D123" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E123" t="n">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>B0DJP82ML2</t>
+          <t>B0DJP9FZYK</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Z890I AORUS ULTRA</t>
+          <t>Z890M GAMING X</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D124" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E124" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
+          <t>B081JDLX48</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+          <t>TRX40 AORUS MASTER</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E125" t="n">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>B0DJP9FZYK</t>
+          <t>B0DQLJVH25</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Z890M GAMING X</t>
+          <t>B850 AI TOP</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D126" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E126" t="n">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>B081JDLX48</t>
+          <t>B0DQLHVQSF</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRX40 AORUS MASTER</t>
+          <t>B850 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D127" t="n">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="E127" t="n">
-        <v>22</v>
+        <v>589</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>B0DQLJVH25</t>
+          <t>B0DQLKRXKW</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B850 AI TOP</t>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D128" t="n">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="E128" t="n">
-        <v>117</v>
+        <v>915</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>B0DQLHVQSF</t>
+          <t>B0DQLJWRDX</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7</t>
+          <t>B850 EAGLE WIFI6E</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D129" t="n">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="E129" t="n">
-        <v>589</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>B0DQLKRXKW</t>
+          <t>B0DQLKZSKF</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7 ICE</t>
+          <t>B850 GAMING WIFI6</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="E130" t="n">
-        <v>915</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>B0DQLJWRDX</t>
+          <t>B0DQLH22F6</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B850 EAGLE WIFI6E</t>
+          <t>B850 GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D131" t="n">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="E131" t="n">
-        <v>656</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>B0DQLKZSKF</t>
+          <t>B0DQLKPSMG</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B850 GAMING WIFI6</t>
+          <t>B850I AORUS PRO</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D132" t="n">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="E132" t="n">
-        <v>122</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>B0DQLH22F6</t>
+          <t>B0DQLJGTRM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B850 GAMING X WIFI6E</t>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="D133" t="n">
-        <v>38</v>
+        <v>627</v>
       </c>
       <c r="E133" t="n">
-        <v>110</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>B0DQLKPSMG</t>
+          <t>B0DQLJHJ8B</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B850I AORUS PRO</t>
+          <t>B850M DS3H</t>
         </is>
       </c>
       <c r="C134" t="n">
+        <v>39</v>
+      </c>
+      <c r="D134" t="n">
         <v>103</v>
       </c>
-      <c r="D134" t="n">
-        <v>244</v>
-      </c>
       <c r="E134" t="n">
-        <v>574</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>B0DQLJGTRM</t>
+          <t>B0DQLHLVLK</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B850M AORUS ELITE WIFI6E ICE</t>
+          <t>B850M GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="D135" t="n">
-        <v>627</v>
+        <v>251</v>
       </c>
       <c r="E135" t="n">
-        <v>1434</v>
+        <v>599</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>B0DQLJHJ8B</t>
+          <t>B0DQLH4ZTR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B850M DS3H</t>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E136" t="n">
-        <v>266</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>B0DQLHLVLK</t>
+          <t>B0DQLJRY8C</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B850M GAMING X WIFI6E</t>
+          <t>B860 EAGLE WIFI6E</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D137" t="n">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="E137" t="n">
-        <v>599</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>B0DQLH4ZTR</t>
+          <t>B0DQLLLHYY</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>B860 AORUS ELITE WIFI7 ICE</t>
+          <t>B860 GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E138" t="n">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>B0DQLJRY8C</t>
+          <t>B0DQLGMGVP</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>B860 EAGLE WIFI6E</t>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E139" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>B0DQLLLHYY</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>B860 GAMING X WIFI6E</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>10</v>
-      </c>
-      <c r="D140" t="n">
-        <v>42</v>
-      </c>
-      <c r="E140" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>B0DQLGMGVP</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>B860M AORUS ELITE WIFI6E ICE</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>35</v>
-      </c>
-      <c r="E141" t="n">
         <v>116</v>
       </c>
     </row>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -496,10 +496,10 @@
         <v>391</v>
       </c>
       <c r="D3" t="n">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E3" t="n">
-        <v>1695</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D16" t="n">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E16" t="n">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D24" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E24" t="n">
-        <v>1212</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="25">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D27" t="n">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="E27" t="n">
-        <v>3362</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="28">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D29" t="n">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="E29" t="n">
-        <v>2045</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="30">
@@ -1063,7 +1063,7 @@
         <v>67</v>
       </c>
       <c r="D30" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" t="n">
         <v>257</v>
@@ -1087,7 +1087,7 @@
         <v>81</v>
       </c>
       <c r="E31" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -1273,10 +1273,10 @@
         <v>1899</v>
       </c>
       <c r="D40" t="n">
-        <v>3505</v>
+        <v>3482</v>
       </c>
       <c r="E40" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="41">
@@ -1507,7 +1507,7 @@
         <v>1258</v>
       </c>
       <c r="E51" t="n">
-        <v>2059</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="52">
@@ -1549,7 +1549,7 @@
         <v>507</v>
       </c>
       <c r="E53" t="n">
-        <v>858</v>
+        <v>844</v>
       </c>
     </row>
     <row r="54">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D55" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E55" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="56">
@@ -1612,7 +1612,7 @@
         <v>285</v>
       </c>
       <c r="E56" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57">
@@ -1759,7 +1759,7 @@
         <v>332</v>
       </c>
       <c r="E63" t="n">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D68" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E68" t="n">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69">
@@ -1987,10 +1987,10 @@
         <v>468</v>
       </c>
       <c r="D74" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E74" t="n">
-        <v>1581</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="75">
@@ -2053,7 +2053,7 @@
         <v>282</v>
       </c>
       <c r="E77" t="n">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78">
@@ -2071,10 +2071,10 @@
         <v>87</v>
       </c>
       <c r="D78" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E78" t="n">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D86" t="n">
         <v>91</v>
@@ -2260,10 +2260,10 @@
         <v>17</v>
       </c>
       <c r="D87" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E87" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D89" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E89" t="n">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D90" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E90" t="n">
-        <v>1290</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="91">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D93" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E93" t="n">
         <v>1715</v>
@@ -2494,7 +2494,7 @@
         <v>91</v>
       </c>
       <c r="E98" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="D100" t="n">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="E100" t="n">
-        <v>4619</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="101">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D112" t="n">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="E112" t="n">
-        <v>1452</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D113" t="n">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E113" t="n">
-        <v>862</v>
+        <v>847</v>
       </c>
     </row>
     <row r="114">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D2" t="n">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="E2" t="n">
-        <v>1588</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="E2" t="n">
-        <v>1612</v>
+        <v>1588</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,2983 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>856</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>271</v>
+      </c>
+      <c r="D8" t="n">
+        <v>541</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>448</v>
+      </c>
+      <c r="D9" t="n">
+        <v>974</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58</v>
+      </c>
+      <c r="E10" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B087GFYBCW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Z490 AORUS ELITE AC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>411</v>
+      </c>
+      <c r="D13" t="n">
+        <v>823</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2581</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5087</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>150</v>
+      </c>
+      <c r="D16" t="n">
+        <v>315</v>
+      </c>
+      <c r="E16" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>26</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>157</v>
+      </c>
+      <c r="D20" t="n">
+        <v>356</v>
+      </c>
+      <c r="E20" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>B08F7BHDLY</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C22" t="n">
         <v>407</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D22" t="n">
         <v>836</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E22" t="n">
         <v>1588</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>315</v>
+      </c>
+      <c r="D24" t="n">
+        <v>625</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>811</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1686</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>573</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>67</v>
+      </c>
+      <c r="D30" t="n">
+        <v>127</v>
+      </c>
+      <c r="E30" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>39</v>
+      </c>
+      <c r="D31" t="n">
+        <v>81</v>
+      </c>
+      <c r="E31" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>731</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1442</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>451</v>
+      </c>
+      <c r="D34" t="n">
+        <v>912</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E35" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>59</v>
+      </c>
+      <c r="D39" t="n">
+        <v>120</v>
+      </c>
+      <c r="E39" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3510</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11</v>
+      </c>
+      <c r="E42" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>66</v>
+      </c>
+      <c r="D44" t="n">
+        <v>142</v>
+      </c>
+      <c r="E44" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>64</v>
+      </c>
+      <c r="D45" t="n">
+        <v>130</v>
+      </c>
+      <c r="E45" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>22</v>
+      </c>
+      <c r="E46" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>315</v>
+      </c>
+      <c r="D47" t="n">
+        <v>612</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>36</v>
+      </c>
+      <c r="D50" t="n">
+        <v>88</v>
+      </c>
+      <c r="E50" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>633</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1258</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B07STNZF9L</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>X570 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>259</v>
+      </c>
+      <c r="D53" t="n">
+        <v>507</v>
+      </c>
+      <c r="E53" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>204</v>
+      </c>
+      <c r="D55" t="n">
+        <v>404</v>
+      </c>
+      <c r="E55" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>140</v>
+      </c>
+      <c r="D56" t="n">
+        <v>282</v>
+      </c>
+      <c r="E56" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>14</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29</v>
+      </c>
+      <c r="E58" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>433</v>
+      </c>
+      <c r="D60" t="n">
+        <v>997</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>84</v>
+      </c>
+      <c r="D61" t="n">
+        <v>169</v>
+      </c>
+      <c r="E61" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>72</v>
+      </c>
+      <c r="D62" t="n">
+        <v>148</v>
+      </c>
+      <c r="E62" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>153</v>
+      </c>
+      <c r="D63" t="n">
+        <v>332</v>
+      </c>
+      <c r="E63" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>280</v>
+      </c>
+      <c r="D64" t="n">
+        <v>564</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>125</v>
+      </c>
+      <c r="D66" t="n">
+        <v>250</v>
+      </c>
+      <c r="E66" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>12</v>
+      </c>
+      <c r="D67" t="n">
+        <v>25</v>
+      </c>
+      <c r="E67" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>149</v>
+      </c>
+      <c r="D68" t="n">
+        <v>296</v>
+      </c>
+      <c r="E68" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>233</v>
+      </c>
+      <c r="D69" t="n">
+        <v>448</v>
+      </c>
+      <c r="E69" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>313</v>
+      </c>
+      <c r="D71" t="n">
+        <v>645</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>105</v>
+      </c>
+      <c r="D72" t="n">
+        <v>220</v>
+      </c>
+      <c r="E72" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>148</v>
+      </c>
+      <c r="D73" t="n">
+        <v>300</v>
+      </c>
+      <c r="E73" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>468</v>
+      </c>
+      <c r="D74" t="n">
+        <v>850</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>187</v>
+      </c>
+      <c r="D75" t="n">
+        <v>408</v>
+      </c>
+      <c r="E75" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>28</v>
+      </c>
+      <c r="D76" t="n">
+        <v>70</v>
+      </c>
+      <c r="E76" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>138</v>
+      </c>
+      <c r="D77" t="n">
+        <v>282</v>
+      </c>
+      <c r="E77" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>87</v>
+      </c>
+      <c r="D78" t="n">
+        <v>171</v>
+      </c>
+      <c r="E78" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>915</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1944</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>413</v>
+      </c>
+      <c r="D81" t="n">
+        <v>879</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>84</v>
+      </c>
+      <c r="D82" t="n">
+        <v>175</v>
+      </c>
+      <c r="E82" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>49</v>
+      </c>
+      <c r="D83" t="n">
+        <v>105</v>
+      </c>
+      <c r="E83" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>177</v>
+      </c>
+      <c r="D84" t="n">
+        <v>352</v>
+      </c>
+      <c r="E84" t="n">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5126</v>
+      </c>
+      <c r="E85" t="n">
+        <v>9798</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>44</v>
+      </c>
+      <c r="D86" t="n">
+        <v>90</v>
+      </c>
+      <c r="E86" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>17</v>
+      </c>
+      <c r="D87" t="n">
+        <v>34</v>
+      </c>
+      <c r="E87" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>14</v>
+      </c>
+      <c r="D88" t="n">
+        <v>29</v>
+      </c>
+      <c r="E88" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>175</v>
+      </c>
+      <c r="D89" t="n">
+        <v>368</v>
+      </c>
+      <c r="E89" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>282</v>
+      </c>
+      <c r="D90" t="n">
+        <v>608</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>43</v>
+      </c>
+      <c r="D92" t="n">
+        <v>88</v>
+      </c>
+      <c r="E92" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>434</v>
+      </c>
+      <c r="D93" t="n">
+        <v>852</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>13</v>
+      </c>
+      <c r="E94" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>26</v>
+      </c>
+      <c r="E95" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>454</v>
+      </c>
+      <c r="D96" t="n">
+        <v>914</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>226</v>
+      </c>
+      <c r="D97" t="n">
+        <v>464</v>
+      </c>
+      <c r="E97" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>45</v>
+      </c>
+      <c r="D98" t="n">
+        <v>91</v>
+      </c>
+      <c r="E98" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2389</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>942</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2053</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>351</v>
+      </c>
+      <c r="D102" t="n">
+        <v>707</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>400</v>
+      </c>
+      <c r="D103" t="n">
+        <v>789</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>678</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>228</v>
+      </c>
+      <c r="D105" t="n">
+        <v>476</v>
+      </c>
+      <c r="E105" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>232</v>
+      </c>
+      <c r="D106" t="n">
+        <v>488</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>648</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>117</v>
+      </c>
+      <c r="D108" t="n">
+        <v>242</v>
+      </c>
+      <c r="E108" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>13</v>
+      </c>
+      <c r="D109" t="n">
+        <v>28</v>
+      </c>
+      <c r="E109" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>251</v>
+      </c>
+      <c r="D110" t="n">
+        <v>534</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>62</v>
+      </c>
+      <c r="D111" t="n">
+        <v>143</v>
+      </c>
+      <c r="E111" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>348</v>
+      </c>
+      <c r="D112" t="n">
+        <v>726</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>203</v>
+      </c>
+      <c r="D113" t="n">
+        <v>421</v>
+      </c>
+      <c r="E113" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>23</v>
+      </c>
+      <c r="D114" t="n">
+        <v>47</v>
+      </c>
+      <c r="E114" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>106</v>
+      </c>
+      <c r="D115" t="n">
+        <v>218</v>
+      </c>
+      <c r="E115" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>46</v>
+      </c>
+      <c r="D116" t="n">
+        <v>93</v>
+      </c>
+      <c r="E116" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>13</v>
+      </c>
+      <c r="D117" t="n">
+        <v>26</v>
+      </c>
+      <c r="E117" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>19</v>
+      </c>
+      <c r="D118" t="n">
+        <v>39</v>
+      </c>
+      <c r="E118" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>43</v>
+      </c>
+      <c r="D119" t="n">
+        <v>79</v>
+      </c>
+      <c r="E119" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>48</v>
+      </c>
+      <c r="D120" t="n">
+        <v>96</v>
+      </c>
+      <c r="E120" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>14</v>
+      </c>
+      <c r="D121" t="n">
+        <v>30</v>
+      </c>
+      <c r="E121" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>50</v>
+      </c>
+      <c r="D122" t="n">
+        <v>107</v>
+      </c>
+      <c r="E122" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>22</v>
+      </c>
+      <c r="D123" t="n">
+        <v>48</v>
+      </c>
+      <c r="E123" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>45</v>
+      </c>
+      <c r="D124" t="n">
+        <v>92</v>
+      </c>
+      <c r="E124" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>45</v>
+      </c>
+      <c r="D125" t="n">
+        <v>92</v>
+      </c>
+      <c r="E125" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>10</v>
+      </c>
+      <c r="D127" t="n">
+        <v>35</v>
+      </c>
+      <c r="E127" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>74</v>
+      </c>
+      <c r="D128" t="n">
+        <v>170</v>
+      </c>
+      <c r="E128" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>141</v>
+      </c>
+      <c r="D129" t="n">
+        <v>318</v>
+      </c>
+      <c r="E129" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>65</v>
+      </c>
+      <c r="D130" t="n">
+        <v>154</v>
+      </c>
+      <c r="E130" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>16</v>
+      </c>
+      <c r="D131" t="n">
+        <v>42</v>
+      </c>
+      <c r="E131" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>10</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27</v>
+      </c>
+      <c r="E132" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>86</v>
+      </c>
+      <c r="D133" t="n">
+        <v>191</v>
+      </c>
+      <c r="E133" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>149</v>
+      </c>
+      <c r="D134" t="n">
+        <v>338</v>
+      </c>
+      <c r="E134" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>33</v>
+      </c>
+      <c r="D135" t="n">
+        <v>85</v>
+      </c>
+      <c r="E135" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>97</v>
+      </c>
+      <c r="D136" t="n">
+        <v>219</v>
+      </c>
+      <c r="E136" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27</v>
+      </c>
+      <c r="E138" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>32</v>
+      </c>
+      <c r="E139" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>33</v>
+      </c>
+      <c r="E140" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30</v>
+      </c>
+      <c r="E141" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>31</v>
+      </c>
+      <c r="E142" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28</v>
+      </c>
+      <c r="E143" t="n">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -496,10 +496,10 @@
         <v>391</v>
       </c>
       <c r="D3" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E3" t="n">
-        <v>1677</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D16" t="n">
         <v>315</v>
       </c>
       <c r="E16" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17">
@@ -916,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
@@ -937,7 +937,7 @@
         <v>315</v>
       </c>
       <c r="D24" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E24" t="n">
         <v>1223</v>
@@ -1000,10 +1000,10 @@
         <v>811</v>
       </c>
       <c r="D27" t="n">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="E27" t="n">
-        <v>3363</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="28">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D29" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E29" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -1087,7 +1087,7 @@
         <v>81</v>
       </c>
       <c r="E31" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1273,10 +1273,10 @@
         <v>1899</v>
       </c>
       <c r="D40" t="n">
-        <v>3510</v>
+        <v>3504</v>
       </c>
       <c r="E40" t="n">
-        <v>6460</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="41">
@@ -1507,7 +1507,7 @@
         <v>1258</v>
       </c>
       <c r="E51" t="n">
-        <v>2058</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="52">
@@ -1549,7 +1549,7 @@
         <v>507</v>
       </c>
       <c r="E53" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54">
@@ -1591,7 +1591,7 @@
         <v>404</v>
       </c>
       <c r="E55" t="n">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D56" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E56" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D61" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E61" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62">
@@ -1759,7 +1759,7 @@
         <v>332</v>
       </c>
       <c r="E63" t="n">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64">
@@ -1843,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D68" t="n">
         <v>296</v>
@@ -2053,7 +2053,7 @@
         <v>282</v>
       </c>
       <c r="E77" t="n">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78">
@@ -2071,10 +2071,10 @@
         <v>87</v>
       </c>
       <c r="D78" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E78" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79">
@@ -2155,10 +2155,10 @@
         <v>84</v>
       </c>
       <c r="D82" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E82" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E87" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88">
@@ -2305,7 +2305,7 @@
         <v>368</v>
       </c>
       <c r="E89" t="n">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90">
@@ -2389,7 +2389,7 @@
         <v>852</v>
       </c>
       <c r="E93" t="n">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="94">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D97" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E97" t="n">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="98">
@@ -2491,10 +2491,10 @@
         <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E98" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99">
@@ -2536,7 +2536,7 @@
         <v>2053</v>
       </c>
       <c r="E100" t="n">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="101">
@@ -2617,10 +2617,10 @@
         <v>678</v>
       </c>
       <c r="D104" t="n">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E104" t="n">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="105">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D112" t="n">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E112" t="n">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D113" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E113" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
     </row>
     <row r="114">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,85 +463,3025 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="D3" t="n">
-        <v>849</v>
+        <v>974</v>
       </c>
       <c r="E3" t="n">
-        <v>1584</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>286</v>
+      </c>
+      <c r="D8" t="n">
+        <v>551</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>516</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>74</v>
+      </c>
+      <c r="E10" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B087GFYBCW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Z490 AORUS ELITE AC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>436</v>
+      </c>
+      <c r="D13" t="n">
+        <v>792</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2581</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5076</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>149</v>
+      </c>
+      <c r="D17" t="n">
+        <v>311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" t="n">
+        <v>28</v>
+      </c>
+      <c r="E20" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>359</v>
+      </c>
+      <c r="E21" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>473</v>
+      </c>
+      <c r="D23" t="n">
+        <v>959</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18</v>
+      </c>
+      <c r="E24" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>280</v>
+      </c>
+      <c r="D25" t="n">
+        <v>579</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>727</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1615</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>459</v>
+      </c>
+      <c r="D30" t="n">
+        <v>867</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>59</v>
+      </c>
+      <c r="D31" t="n">
+        <v>115</v>
+      </c>
+      <c r="E31" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>39</v>
+      </c>
+      <c r="D32" t="n">
+        <v>81</v>
+      </c>
+      <c r="E32" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>490</v>
+      </c>
+      <c r="D35" t="n">
+        <v>959</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>31</v>
+      </c>
+      <c r="E36" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>77</v>
+      </c>
+      <c r="D40" t="n">
+        <v>138</v>
+      </c>
+      <c r="E40" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3563</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>15</v>
+      </c>
+      <c r="E43" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>57</v>
+      </c>
+      <c r="D45" t="n">
+        <v>117</v>
+      </c>
+      <c r="E45" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>69</v>
+      </c>
+      <c r="D46" t="n">
+        <v>141</v>
+      </c>
+      <c r="E46" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>22</v>
+      </c>
+      <c r="E47" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>369</v>
+      </c>
+      <c r="D48" t="n">
+        <v>651</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>60</v>
+      </c>
+      <c r="D51" t="n">
+        <v>128</v>
+      </c>
+      <c r="E51" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>818</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B07STNZF9L</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>X570 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>248</v>
+      </c>
+      <c r="D54" t="n">
+        <v>486</v>
+      </c>
+      <c r="E54" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>222</v>
+      </c>
+      <c r="D56" t="n">
+        <v>418</v>
+      </c>
+      <c r="E56" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>161</v>
+      </c>
+      <c r="D57" t="n">
+        <v>300</v>
+      </c>
+      <c r="E57" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>13</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28</v>
+      </c>
+      <c r="E59" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>482</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1093</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>101</v>
+      </c>
+      <c r="D62" t="n">
+        <v>179</v>
+      </c>
+      <c r="E62" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>80</v>
+      </c>
+      <c r="D63" t="n">
+        <v>140</v>
+      </c>
+      <c r="E63" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>129</v>
+      </c>
+      <c r="D64" t="n">
+        <v>285</v>
+      </c>
+      <c r="E64" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>282</v>
+      </c>
+      <c r="D65" t="n">
+        <v>556</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>55</v>
+      </c>
+      <c r="D67" t="n">
+        <v>114</v>
+      </c>
+      <c r="E67" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>14</v>
+      </c>
+      <c r="D68" t="n">
+        <v>29</v>
+      </c>
+      <c r="E68" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>143</v>
+      </c>
+      <c r="D69" t="n">
+        <v>286</v>
+      </c>
+      <c r="E69" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>225</v>
+      </c>
+      <c r="D70" t="n">
+        <v>443</v>
+      </c>
+      <c r="E70" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>330</v>
+      </c>
+      <c r="D72" t="n">
+        <v>645</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>130</v>
+      </c>
+      <c r="D73" t="n">
+        <v>233</v>
+      </c>
+      <c r="E73" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>196</v>
+      </c>
+      <c r="D74" t="n">
+        <v>359</v>
+      </c>
+      <c r="E74" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>370</v>
+      </c>
+      <c r="D75" t="n">
+        <v>715</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>207</v>
+      </c>
+      <c r="D76" t="n">
+        <v>443</v>
+      </c>
+      <c r="E76" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>25</v>
+      </c>
+      <c r="D77" t="n">
+        <v>67</v>
+      </c>
+      <c r="E77" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>154</v>
+      </c>
+      <c r="D78" t="n">
+        <v>273</v>
+      </c>
+      <c r="E78" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>140</v>
+      </c>
+      <c r="D79" t="n">
+        <v>242</v>
+      </c>
+      <c r="E79" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2041</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>14</v>
+      </c>
+      <c r="E82" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>506</v>
+      </c>
+      <c r="D83" t="n">
+        <v>973</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>62</v>
+      </c>
+      <c r="D84" t="n">
+        <v>134</v>
+      </c>
+      <c r="E84" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>53</v>
+      </c>
+      <c r="D85" t="n">
+        <v>112</v>
+      </c>
+      <c r="E85" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>261</v>
+      </c>
+      <c r="D86" t="n">
+        <v>479</v>
+      </c>
+      <c r="E86" t="n">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4981</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>46</v>
+      </c>
+      <c r="D88" t="n">
+        <v>94</v>
+      </c>
+      <c r="E88" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>16</v>
+      </c>
+      <c r="D89" t="n">
+        <v>33</v>
+      </c>
+      <c r="E89" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>15</v>
+      </c>
+      <c r="D90" t="n">
+        <v>32</v>
+      </c>
+      <c r="E90" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>174</v>
+      </c>
+      <c r="D91" t="n">
+        <v>368</v>
+      </c>
+      <c r="E91" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>300</v>
+      </c>
+      <c r="D92" t="n">
+        <v>641</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>50</v>
+      </c>
+      <c r="D94" t="n">
+        <v>95</v>
+      </c>
+      <c r="E94" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>523</v>
+      </c>
+      <c r="D95" t="n">
+        <v>941</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>13</v>
+      </c>
+      <c r="E96" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+      <c r="D97" t="n">
+        <v>21</v>
+      </c>
+      <c r="E97" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>698</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>233</v>
+      </c>
+      <c r="D99" t="n">
+        <v>476</v>
+      </c>
+      <c r="E99" t="n">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>45</v>
+      </c>
+      <c r="D100" t="n">
+        <v>91</v>
+      </c>
+      <c r="E100" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2810</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1132</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>941</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>454</v>
+      </c>
+      <c r="D104" t="n">
+        <v>830</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>672</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1148</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>678</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1385</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>295</v>
+      </c>
+      <c r="D107" t="n">
+        <v>588</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>129</v>
+      </c>
+      <c r="D108" t="n">
+        <v>359</v>
+      </c>
+      <c r="E108" t="n">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>626</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1259</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>169</v>
+      </c>
+      <c r="D110" t="n">
+        <v>306</v>
+      </c>
+      <c r="E110" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>15</v>
+      </c>
+      <c r="D111" t="n">
+        <v>36</v>
+      </c>
+      <c r="E111" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>332</v>
+      </c>
+      <c r="D112" t="n">
+        <v>624</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>99</v>
+      </c>
+      <c r="D113" t="n">
+        <v>185</v>
+      </c>
+      <c r="E113" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>344</v>
+      </c>
+      <c r="D114" t="n">
+        <v>722</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>214</v>
+      </c>
+      <c r="D115" t="n">
+        <v>443</v>
+      </c>
+      <c r="E115" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>24</v>
+      </c>
+      <c r="D116" t="n">
+        <v>47</v>
+      </c>
+      <c r="E116" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>120</v>
+      </c>
+      <c r="D117" t="n">
+        <v>234</v>
+      </c>
+      <c r="E117" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>63</v>
+      </c>
+      <c r="D118" t="n">
+        <v>109</v>
+      </c>
+      <c r="E118" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>17</v>
+      </c>
+      <c r="D119" t="n">
+        <v>31</v>
+      </c>
+      <c r="E119" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>24</v>
+      </c>
+      <c r="D120" t="n">
+        <v>44</v>
+      </c>
+      <c r="E120" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>33</v>
+      </c>
+      <c r="D121" t="n">
+        <v>59</v>
+      </c>
+      <c r="E121" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>49</v>
+      </c>
+      <c r="D122" t="n">
+        <v>95</v>
+      </c>
+      <c r="E122" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>22</v>
+      </c>
+      <c r="D123" t="n">
+        <v>38</v>
+      </c>
+      <c r="E123" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
           <t>B0DJP8W3BY</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Z890 UD WIFI6E</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C124" t="n">
+        <v>73</v>
+      </c>
+      <c r="D124" t="n">
+        <v>118</v>
+      </c>
+      <c r="E124" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>24</v>
+      </c>
+      <c r="D125" t="n">
+        <v>47</v>
+      </c>
+      <c r="E125" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
-        <v>107</v>
-      </c>
-      <c r="E5" t="n">
-        <v>214</v>
+      <c r="D126" t="n">
+        <v>112</v>
+      </c>
+      <c r="E126" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>64</v>
+      </c>
+      <c r="D127" t="n">
+        <v>109</v>
+      </c>
+      <c r="E127" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>14</v>
+      </c>
+      <c r="D129" t="n">
+        <v>31</v>
+      </c>
+      <c r="E129" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>154</v>
+      </c>
+      <c r="D130" t="n">
+        <v>291</v>
+      </c>
+      <c r="E130" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>155</v>
+      </c>
+      <c r="D131" t="n">
+        <v>342</v>
+      </c>
+      <c r="E131" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>79</v>
+      </c>
+      <c r="D132" t="n">
+        <v>182</v>
+      </c>
+      <c r="E132" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>63</v>
+      </c>
+      <c r="D133" t="n">
+        <v>113</v>
+      </c>
+      <c r="E133" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>52</v>
+      </c>
+      <c r="D134" t="n">
+        <v>95</v>
+      </c>
+      <c r="E134" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>164</v>
+      </c>
+      <c r="D135" t="n">
+        <v>303</v>
+      </c>
+      <c r="E135" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>186</v>
+      </c>
+      <c r="D136" t="n">
+        <v>411</v>
+      </c>
+      <c r="E136" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>34</v>
+      </c>
+      <c r="D137" t="n">
+        <v>84</v>
+      </c>
+      <c r="E137" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>155</v>
+      </c>
+      <c r="D138" t="n">
+        <v>296</v>
+      </c>
+      <c r="E138" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27</v>
+      </c>
+      <c r="E139" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25</v>
+      </c>
+      <c r="E140" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>26</v>
+      </c>
+      <c r="E141" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>11</v>
+      </c>
+      <c r="D142" t="n">
+        <v>29</v>
+      </c>
+      <c r="E142" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>14</v>
+      </c>
+      <c r="D143" t="n">
+        <v>49</v>
+      </c>
+      <c r="E143" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30</v>
+      </c>
+      <c r="E144" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27</v>
+      </c>
+      <c r="E145" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="E2" t="n">
-        <v>1854</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="D3" t="n">
-        <v>879</v>
+        <v>683</v>
       </c>
       <c r="E3" t="n">
-        <v>1670</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="D2" t="n">
-        <v>972</v>
+        <v>1037</v>
       </c>
       <c r="E2" t="n">
-        <v>1895</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D3" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E3" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,43 +463,2710 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1037</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>1979</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>488</v>
+      </c>
+      <c r="D3" t="n">
+        <v>950</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>220</v>
+      </c>
+      <c r="D8" t="n">
+        <v>430</v>
+      </c>
+      <c r="E8" t="n">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>802</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>441</v>
+      </c>
+      <c r="D11" t="n">
+        <v>809</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2519</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4912</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>144</v>
+      </c>
+      <c r="D15" t="n">
+        <v>271</v>
+      </c>
+      <c r="E15" t="n">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>23</v>
+      </c>
+      <c r="E18" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>196</v>
+      </c>
+      <c r="D19" t="n">
+        <v>378</v>
+      </c>
+      <c r="E19" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>522</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>296</v>
+      </c>
+      <c r="D23" t="n">
+        <v>672</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>864</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>B08F7HPJ4F</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>339</v>
-      </c>
-      <c r="D3" t="n">
-        <v>682</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1301</v>
+      <c r="C28" t="n">
+        <v>347</v>
+      </c>
+      <c r="D28" t="n">
+        <v>698</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>110</v>
+      </c>
+      <c r="D29" t="n">
+        <v>226</v>
+      </c>
+      <c r="E29" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>37</v>
+      </c>
+      <c r="D30" t="n">
+        <v>76</v>
+      </c>
+      <c r="E30" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>607</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>440</v>
+      </c>
+      <c r="D33" t="n">
+        <v>894</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16</v>
+      </c>
+      <c r="E34" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>53</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101</v>
+      </c>
+      <c r="E38" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1562</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2931</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>43</v>
+      </c>
+      <c r="D43" t="n">
+        <v>88</v>
+      </c>
+      <c r="E43" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>36</v>
+      </c>
+      <c r="D44" t="n">
+        <v>72</v>
+      </c>
+      <c r="E44" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>11</v>
+      </c>
+      <c r="D45" t="n">
+        <v>23</v>
+      </c>
+      <c r="E45" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>420</v>
+      </c>
+      <c r="D46" t="n">
+        <v>789</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>31</v>
+      </c>
+      <c r="D49" t="n">
+        <v>59</v>
+      </c>
+      <c r="E49" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>695</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>196</v>
+      </c>
+      <c r="D51" t="n">
+        <v>393</v>
+      </c>
+      <c r="E51" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>173</v>
+      </c>
+      <c r="D53" t="n">
+        <v>320</v>
+      </c>
+      <c r="E53" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>105</v>
+      </c>
+      <c r="D54" t="n">
+        <v>201</v>
+      </c>
+      <c r="E54" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="n">
+        <v>31</v>
+      </c>
+      <c r="E56" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>289</v>
+      </c>
+      <c r="D58" t="n">
+        <v>578</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>63</v>
+      </c>
+      <c r="D59" t="n">
+        <v>116</v>
+      </c>
+      <c r="E59" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>51</v>
+      </c>
+      <c r="D60" t="n">
+        <v>94</v>
+      </c>
+      <c r="E60" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>96</v>
+      </c>
+      <c r="D61" t="n">
+        <v>171</v>
+      </c>
+      <c r="E61" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>381</v>
+      </c>
+      <c r="D62" t="n">
+        <v>755</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16</v>
+      </c>
+      <c r="E63" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>53</v>
+      </c>
+      <c r="D64" t="n">
+        <v>107</v>
+      </c>
+      <c r="E64" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>18</v>
+      </c>
+      <c r="E65" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>72</v>
+      </c>
+      <c r="D66" t="n">
+        <v>155</v>
+      </c>
+      <c r="E66" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>99</v>
+      </c>
+      <c r="D67" t="n">
+        <v>209</v>
+      </c>
+      <c r="E67" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>204</v>
+      </c>
+      <c r="D69" t="n">
+        <v>398</v>
+      </c>
+      <c r="E69" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>89</v>
+      </c>
+      <c r="D70" t="n">
+        <v>195</v>
+      </c>
+      <c r="E70" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>159</v>
+      </c>
+      <c r="D71" t="n">
+        <v>313</v>
+      </c>
+      <c r="E71" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>331</v>
+      </c>
+      <c r="D72" t="n">
+        <v>679</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>144</v>
+      </c>
+      <c r="D73" t="n">
+        <v>293</v>
+      </c>
+      <c r="E73" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>21</v>
+      </c>
+      <c r="D74" t="n">
+        <v>48</v>
+      </c>
+      <c r="E74" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>98</v>
+      </c>
+      <c r="D75" t="n">
+        <v>185</v>
+      </c>
+      <c r="E75" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>114</v>
+      </c>
+      <c r="D76" t="n">
+        <v>219</v>
+      </c>
+      <c r="E76" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>774</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>428</v>
+      </c>
+      <c r="D79" t="n">
+        <v>852</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>37</v>
+      </c>
+      <c r="D80" t="n">
+        <v>60</v>
+      </c>
+      <c r="E80" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>38</v>
+      </c>
+      <c r="D81" t="n">
+        <v>78</v>
+      </c>
+      <c r="E81" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>269</v>
+      </c>
+      <c r="D82" t="n">
+        <v>568</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2522</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4685</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8555</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>26</v>
+      </c>
+      <c r="D84" t="n">
+        <v>52</v>
+      </c>
+      <c r="E84" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>10</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20</v>
+      </c>
+      <c r="E85" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>12</v>
+      </c>
+      <c r="D86" t="n">
+        <v>24</v>
+      </c>
+      <c r="E86" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>205</v>
+      </c>
+      <c r="D87" t="n">
+        <v>416</v>
+      </c>
+      <c r="E87" t="n">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>352</v>
+      </c>
+      <c r="D88" t="n">
+        <v>700</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>31</v>
+      </c>
+      <c r="D90" t="n">
+        <v>65</v>
+      </c>
+      <c r="E90" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>667</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1134</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>13</v>
+      </c>
+      <c r="E92" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>16</v>
+      </c>
+      <c r="E93" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>586</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>251</v>
+      </c>
+      <c r="D95" t="n">
+        <v>429</v>
+      </c>
+      <c r="E95" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>53</v>
+      </c>
+      <c r="D96" t="n">
+        <v>108</v>
+      </c>
+      <c r="E96" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1488</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2858</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2619</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>981</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>385</v>
+      </c>
+      <c r="D100" t="n">
+        <v>687</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>204</v>
+      </c>
+      <c r="D101" t="n">
+        <v>484</v>
+      </c>
+      <c r="E101" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>702</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1369</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>244</v>
+      </c>
+      <c r="D103" t="n">
+        <v>508</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>129</v>
+      </c>
+      <c r="D104" t="n">
+        <v>260</v>
+      </c>
+      <c r="E104" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>664</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1329</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>106</v>
+      </c>
+      <c r="D106" t="n">
+        <v>230</v>
+      </c>
+      <c r="E106" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>19</v>
+      </c>
+      <c r="E107" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>203</v>
+      </c>
+      <c r="D108" t="n">
+        <v>333</v>
+      </c>
+      <c r="E108" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>34</v>
+      </c>
+      <c r="D109" t="n">
+        <v>70</v>
+      </c>
+      <c r="E109" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>462</v>
+      </c>
+      <c r="D110" t="n">
+        <v>928</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>247</v>
+      </c>
+      <c r="D111" t="n">
+        <v>451</v>
+      </c>
+      <c r="E111" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>51</v>
+      </c>
+      <c r="D113" t="n">
+        <v>106</v>
+      </c>
+      <c r="E113" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>196</v>
+      </c>
+      <c r="D114" t="n">
+        <v>389</v>
+      </c>
+      <c r="E114" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>343</v>
+      </c>
+      <c r="D115" t="n">
+        <v>699</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>155</v>
+      </c>
+      <c r="D116" t="n">
+        <v>321</v>
+      </c>
+      <c r="E116" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>69</v>
+      </c>
+      <c r="D117" t="n">
+        <v>141</v>
+      </c>
+      <c r="E117" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>32</v>
+      </c>
+      <c r="D118" t="n">
+        <v>64</v>
+      </c>
+      <c r="E118" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>157</v>
+      </c>
+      <c r="D119" t="n">
+        <v>306</v>
+      </c>
+      <c r="E119" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>247</v>
+      </c>
+      <c r="D120" t="n">
+        <v>517</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>32</v>
+      </c>
+      <c r="D121" t="n">
+        <v>71</v>
+      </c>
+      <c r="E121" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>115</v>
+      </c>
+      <c r="D122" t="n">
+        <v>233</v>
+      </c>
+      <c r="E122" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>22</v>
+      </c>
+      <c r="E123" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>22</v>
+      </c>
+      <c r="E124" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12</v>
+      </c>
+      <c r="E125" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>17</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39</v>
+      </c>
+      <c r="E126" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>42</v>
+      </c>
+      <c r="E127" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25</v>
+      </c>
+      <c r="E128" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>25</v>
+      </c>
+      <c r="E129" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLK2RF3</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B860I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>18</v>
+      </c>
+      <c r="E130" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D3" t="n">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="E3" t="n">
-        <v>1790</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="4">
@@ -538,10 +538,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D8" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E8" t="n">
-        <v>839</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D9" t="n">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E9" t="n">
-        <v>1479</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="10">
@@ -643,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D11" t="n">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E11" t="n">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2519</v>
+        <v>2632</v>
       </c>
       <c r="D14" t="n">
-        <v>4912</v>
+        <v>4993</v>
       </c>
       <c r="E14" t="n">
-        <v>9457</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="15">
@@ -748,10 +748,10 @@
         <v>144</v>
       </c>
       <c r="D15" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E15" t="n">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16">
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +835,7 @@
         <v>378</v>
       </c>
       <c r="E19" t="n">
-        <v>682</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D21" t="n">
-        <v>1037</v>
+        <v>1006</v>
       </c>
       <c r="E21" t="n">
-        <v>1978</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="D23" t="n">
-        <v>672</v>
+        <v>485</v>
       </c>
       <c r="E23" t="n">
-        <v>1277</v>
+        <v>971</v>
       </c>
     </row>
     <row r="24">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>864</v>
+        <v>812</v>
       </c>
       <c r="D26" t="n">
-        <v>1733</v>
+        <v>1609</v>
       </c>
       <c r="E26" t="n">
-        <v>3348</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="27">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D28" t="n">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="E28" t="n">
-        <v>1317</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D29" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E29" t="n">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
         <v>76</v>
       </c>
       <c r="E30" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="D32" t="n">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="E32" t="n">
-        <v>2114</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="D33" t="n">
-        <v>894</v>
+        <v>864</v>
       </c>
       <c r="E33" t="n">
-        <v>1644</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="34">
@@ -1147,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
         <v>31</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1231,10 +1231,10 @@
         <v>53</v>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E38" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="D39" t="n">
-        <v>2931</v>
+        <v>2920</v>
       </c>
       <c r="E39" t="n">
-        <v>5546</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="40">
@@ -1273,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1294,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E41" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -1336,7 +1336,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" t="n">
         <v>175</v>
@@ -1360,7 +1360,7 @@
         <v>72</v>
       </c>
       <c r="E44" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45">
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" t="n">
         <v>38</v>
@@ -1441,10 +1441,10 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E49" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D50" t="n">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="E50" t="n">
-        <v>2175</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="51">
@@ -1504,10 +1504,10 @@
         <v>196</v>
       </c>
       <c r="D51" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E51" t="n">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D54" t="n">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E54" t="n">
-        <v>369</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
@@ -1591,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1612,7 +1612,7 @@
         <v>31</v>
       </c>
       <c r="E56" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D58" t="n">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="E58" t="n">
-        <v>1136</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="59">
@@ -1672,10 +1672,10 @@
         <v>63</v>
       </c>
       <c r="D59" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E59" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D61" t="n">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E61" t="n">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D62" t="n">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E62" t="n">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="63">
@@ -1780,7 +1780,7 @@
         <v>107</v>
       </c>
       <c r="E64" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
@@ -1843,7 +1843,7 @@
         <v>209</v>
       </c>
       <c r="E67" t="n">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D69" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E69" t="n">
-        <v>738</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E70" t="n">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D71" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E71" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="D72" t="n">
-        <v>679</v>
+        <v>733</v>
       </c>
       <c r="E72" t="n">
-        <v>1323</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="73">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D74" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E74" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
@@ -2011,7 +2011,7 @@
         <v>185</v>
       </c>
       <c r="E75" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" t="n">
         <v>219</v>
       </c>
       <c r="E76" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D80" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E80" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D81" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E81" t="n">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D82" t="n">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="E82" t="n">
-        <v>1132</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2522</v>
+        <v>2193</v>
       </c>
       <c r="D83" t="n">
-        <v>4685</v>
+        <v>4268</v>
       </c>
       <c r="E83" t="n">
-        <v>8555</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85">
@@ -2242,7 +2242,7 @@
         <v>24</v>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="D88" t="n">
-        <v>700</v>
+        <v>524</v>
       </c>
       <c r="E88" t="n">
-        <v>1360</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D90" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E90" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>667</v>
+        <v>559</v>
       </c>
       <c r="D91" t="n">
-        <v>1134</v>
+        <v>1164</v>
       </c>
       <c r="E91" t="n">
-        <v>1733</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="92">
@@ -2368,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="D94" t="n">
-        <v>1117</v>
+        <v>993</v>
       </c>
       <c r="E94" t="n">
-        <v>1756</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="D95" t="n">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E95" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D96" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E96" t="n">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1488</v>
+        <v>844</v>
       </c>
       <c r="D97" t="n">
-        <v>2858</v>
+        <v>1895</v>
       </c>
       <c r="E97" t="n">
-        <v>5318</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1284</v>
+        <v>793</v>
       </c>
       <c r="D98" t="n">
-        <v>2619</v>
+        <v>1970</v>
       </c>
       <c r="E98" t="n">
-        <v>5070</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>981</v>
+        <v>948</v>
       </c>
       <c r="D99" t="n">
-        <v>1968</v>
+        <v>1934</v>
       </c>
       <c r="E99" t="n">
-        <v>3759</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="D100" t="n">
-        <v>687</v>
+        <v>841</v>
       </c>
       <c r="E100" t="n">
-        <v>1405</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="D101" t="n">
-        <v>484</v>
+        <v>738</v>
       </c>
       <c r="E101" t="n">
-        <v>961</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D102" t="n">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="E102" t="n">
-        <v>2608</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="103">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D104" t="n">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="E104" t="n">
-        <v>523</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105">
@@ -2641,7 +2641,7 @@
         <v>1329</v>
       </c>
       <c r="E105" t="n">
-        <v>2674</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D106" t="n">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E106" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107">
@@ -2683,7 +2683,7 @@
         <v>19</v>
       </c>
       <c r="E107" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="D108" t="n">
-        <v>333</v>
+        <v>482</v>
       </c>
       <c r="E108" t="n">
-        <v>585</v>
+        <v>949</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D109" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E109" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D110" t="n">
-        <v>928</v>
+        <v>902</v>
       </c>
       <c r="E110" t="n">
-        <v>1808</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D111" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E111" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="112">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D3" t="n">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E3" t="n">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>322</v>
+        <v>516</v>
       </c>
       <c r="D8" t="n">
-        <v>617</v>
+        <v>890</v>
       </c>
       <c r="E8" t="n">
-        <v>1114</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="D9" t="n">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="E9" t="n">
-        <v>1568</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>361</v>
+        <v>527</v>
       </c>
       <c r="D11" t="n">
-        <v>689</v>
+        <v>1066</v>
       </c>
       <c r="E11" t="n">
-        <v>1265</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2587</v>
+        <v>2542</v>
       </c>
       <c r="D14" t="n">
-        <v>5059</v>
+        <v>5039</v>
       </c>
       <c r="E14" t="n">
-        <v>10089</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D15" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E15" t="n">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
         <v>17</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D19" t="n">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="E19" t="n">
-        <v>626</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D21" t="n">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E21" t="n">
-        <v>1902</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="22">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="D23" t="n">
-        <v>654</v>
+        <v>495</v>
       </c>
       <c r="E23" t="n">
-        <v>1155</v>
+        <v>962</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>754</v>
+        <v>800</v>
       </c>
       <c r="D26" t="n">
-        <v>1520</v>
+        <v>1567</v>
       </c>
       <c r="E26" t="n">
-        <v>2900</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D28" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E28" t="n">
-        <v>1367</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="D29" t="n">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="E29" t="n">
-        <v>650</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -1084,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="D32" t="n">
-        <v>1121</v>
+        <v>1191</v>
       </c>
       <c r="E32" t="n">
-        <v>2013</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>373</v>
+        <v>545</v>
       </c>
       <c r="D33" t="n">
-        <v>759</v>
+        <v>968</v>
       </c>
       <c r="E33" t="n">
-        <v>1486</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1021</v>
+        <v>1227</v>
       </c>
       <c r="D39" t="n">
-        <v>2165</v>
+        <v>2218</v>
       </c>
       <c r="E39" t="n">
-        <v>4078</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D43" t="n">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="E43" t="n">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E44" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -1378,10 +1378,10 @@
         <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D46" t="n">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="E46" t="n">
-        <v>1414</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="47">
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>616</v>
+        <v>832</v>
       </c>
       <c r="D50" t="n">
-        <v>1175</v>
+        <v>1688</v>
       </c>
       <c r="E50" t="n">
-        <v>2152</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="D51" t="n">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="E51" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D53" t="n">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="E53" t="n">
-        <v>540</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D54" t="n">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E54" t="n">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1609,10 +1609,10 @@
         <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="D58" t="n">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="E58" t="n">
-        <v>847</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D59" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E59" t="n">
-        <v>260</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D60" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E60" t="n">
-        <v>166</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D62" t="n">
-        <v>726</v>
+        <v>788</v>
       </c>
       <c r="E62" t="n">
-        <v>1341</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D64" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E64" t="n">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E65" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D66" t="n">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E66" t="n">
-        <v>343</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D67" t="n">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E67" t="n">
-        <v>422</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68">
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="D69" t="n">
-        <v>560</v>
+        <v>437</v>
       </c>
       <c r="E69" t="n">
-        <v>1070</v>
+        <v>895</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D70" t="n">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E70" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D71" t="n">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="E71" t="n">
-        <v>638</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D72" t="n">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E72" t="n">
-        <v>1415</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D73" t="n">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="E73" t="n">
-        <v>545</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E75" t="n">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D76" t="n">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E76" t="n">
-        <v>305</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="D77" t="n">
-        <v>1242</v>
+        <v>1252</v>
       </c>
       <c r="E77" t="n">
-        <v>2552</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="78">
@@ -2074,7 +2074,7 @@
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D79" t="n">
-        <v>717</v>
+        <v>762</v>
       </c>
       <c r="E79" t="n">
-        <v>1276</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D80" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E80" t="n">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E81" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D82" t="n">
-        <v>640</v>
+        <v>706</v>
       </c>
       <c r="E82" t="n">
-        <v>1208</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1851</v>
+        <v>1627</v>
       </c>
       <c r="D83" t="n">
-        <v>3857</v>
+        <v>2834</v>
       </c>
       <c r="E83" t="n">
-        <v>7489</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E84" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E85" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E86" t="n">
-        <v>53</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D87" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="E87" t="n">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>328</v>
+        <v>1090</v>
       </c>
       <c r="D88" t="n">
-        <v>601</v>
+        <v>1659</v>
       </c>
       <c r="E88" t="n">
-        <v>1234</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E90" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D91" t="n">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="E91" t="n">
-        <v>1718</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="92">
@@ -2365,10 +2365,10 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
         <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>516</v>
+        <v>675</v>
       </c>
       <c r="D94" t="n">
-        <v>1002</v>
+        <v>1128</v>
       </c>
       <c r="E94" t="n">
-        <v>1895</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D95" t="n">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="E95" t="n">
-        <v>602</v>
+        <v>770</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E96" t="n">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1453</v>
+        <v>1605</v>
       </c>
       <c r="D97" t="n">
-        <v>2314</v>
+        <v>2879</v>
       </c>
       <c r="E97" t="n">
-        <v>4381</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1335</v>
+        <v>1199</v>
       </c>
       <c r="D98" t="n">
-        <v>2632</v>
+        <v>2422</v>
       </c>
       <c r="E98" t="n">
-        <v>4988</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1009</v>
+        <v>4512</v>
       </c>
       <c r="D99" t="n">
-        <v>2038</v>
+        <v>6005</v>
       </c>
       <c r="E99" t="n">
-        <v>3869</v>
+        <v>9845</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="D100" t="n">
-        <v>613</v>
+        <v>393</v>
       </c>
       <c r="E100" t="n">
-        <v>1205</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="D101" t="n">
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="E101" t="n">
-        <v>1476</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1046</v>
+        <v>800</v>
       </c>
       <c r="D102" t="n">
-        <v>2234</v>
+        <v>1627</v>
       </c>
       <c r="E102" t="n">
-        <v>4132</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="D103" t="n">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="E103" t="n">
-        <v>1008</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D104" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E104" t="n">
-        <v>581</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>535</v>
+        <v>1863</v>
       </c>
       <c r="D105" t="n">
-        <v>1068</v>
+        <v>2902</v>
       </c>
       <c r="E105" t="n">
-        <v>2124</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D106" t="n">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E106" t="n">
-        <v>490</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D107" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D108" t="n">
-        <v>431</v>
+        <v>345</v>
       </c>
       <c r="E108" t="n">
-        <v>890</v>
+        <v>698</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>172</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="D110" t="n">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="E110" t="n">
-        <v>1258</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="D111" t="n">
-        <v>396</v>
+        <v>511</v>
       </c>
       <c r="E111" t="n">
-        <v>799</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D112" t="n">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E112" t="n">
-        <v>461</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D113" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E113" t="n">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D114" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E114" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D115" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E115" t="n">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D116" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E116" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D117" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E117" t="n">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E118" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D119" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E119" t="n">
-        <v>166</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D120" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E120" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D121" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E121" t="n">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" t="n">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E3" t="n">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>516</v>
+        <v>277</v>
       </c>
       <c r="D8" t="n">
-        <v>890</v>
+        <v>525</v>
       </c>
       <c r="E8" t="n">
-        <v>1270</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D9" t="n">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E9" t="n">
-        <v>1186</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="10">
@@ -646,7 +646,7 @@
         <v>72</v>
       </c>
       <c r="E10" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D11" t="n">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E11" t="n">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="12">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2542</v>
+        <v>2602</v>
       </c>
       <c r="D14" t="n">
-        <v>5039</v>
+        <v>5161</v>
       </c>
       <c r="E14" t="n">
-        <v>10020</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D15" t="n">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E15" t="n">
-        <v>472</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="D19" t="n">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="E19" t="n">
-        <v>669</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="D21" t="n">
-        <v>984</v>
+        <v>1040</v>
       </c>
       <c r="E21" t="n">
-        <v>1921</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="22">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D23" t="n">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="E23" t="n">
-        <v>962</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="24">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>800</v>
+        <v>593</v>
       </c>
       <c r="D26" t="n">
-        <v>1567</v>
+        <v>1190</v>
       </c>
       <c r="E26" t="n">
-        <v>2993</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="27">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="D28" t="n">
-        <v>721</v>
+        <v>787</v>
       </c>
       <c r="E28" t="n">
-        <v>1435</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D29" t="n">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="E29" t="n">
-        <v>205</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -1087,7 +1087,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="D32" t="n">
-        <v>1191</v>
+        <v>1350</v>
       </c>
       <c r="E32" t="n">
-        <v>2064</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="D33" t="n">
-        <v>968</v>
+        <v>995</v>
       </c>
       <c r="E33" t="n">
-        <v>1515</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="34">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E38" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1227</v>
+        <v>1134</v>
       </c>
       <c r="D39" t="n">
-        <v>2218</v>
+        <v>2012</v>
       </c>
       <c r="E39" t="n">
-        <v>4496</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="40">
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D43" t="n">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E43" t="n">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>359</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>716</v>
+        <v>58</v>
       </c>
       <c r="E46" t="n">
-        <v>1425</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>832</v>
+        <v>47</v>
       </c>
       <c r="D50" t="n">
-        <v>1688</v>
+        <v>89</v>
       </c>
       <c r="E50" t="n">
-        <v>3472</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="E51" t="n">
-        <v>550</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="E53" t="n">
-        <v>572</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>392</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
-        <v>450</v>
+        <v>63</v>
       </c>
       <c r="E58" t="n">
-        <v>813</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>338</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
-        <v>788</v>
+        <v>57</v>
       </c>
       <c r="E62" t="n">
-        <v>1628</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>384</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="E67" t="n">
-        <v>459</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="D69" t="n">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
-        <v>895</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>384</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="D71" t="n">
-        <v>335</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>671</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>353</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>710</v>
+        <v>56</v>
       </c>
       <c r="E72" t="n">
-        <v>1439</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="E73" t="n">
-        <v>576</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
@@ -1987,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>189</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>367</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D77" t="n">
-        <v>1252</v>
+        <v>95</v>
       </c>
       <c r="E77" t="n">
-        <v>2529</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
-        <v>762</v>
+        <v>60</v>
       </c>
       <c r="E79" t="n">
-        <v>1294</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
-        <v>211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>706</v>
+        <v>51</v>
       </c>
       <c r="E82" t="n">
-        <v>1574</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1627</v>
+        <v>168</v>
       </c>
       <c r="D83" t="n">
-        <v>2834</v>
+        <v>324</v>
       </c>
       <c r="E83" t="n">
-        <v>4736</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="E87" t="n">
-        <v>780</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1090</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
-        <v>1659</v>
+        <v>55</v>
       </c>
       <c r="E88" t="n">
-        <v>3176</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E90" t="n">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>448</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
-        <v>895</v>
+        <v>69</v>
       </c>
       <c r="E91" t="n">
-        <v>1793</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>675</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
-        <v>1128</v>
+        <v>77</v>
       </c>
       <c r="E94" t="n">
-        <v>2204</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
-        <v>377</v>
+        <v>32</v>
       </c>
       <c r="E95" t="n">
-        <v>770</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>208</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1605</v>
+        <v>111</v>
       </c>
       <c r="D97" t="n">
-        <v>2879</v>
+        <v>211</v>
       </c>
       <c r="E97" t="n">
-        <v>5902</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1199</v>
+        <v>111</v>
       </c>
       <c r="D98" t="n">
-        <v>2422</v>
+        <v>211</v>
       </c>
       <c r="E98" t="n">
-        <v>5052</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4512</v>
+        <v>88</v>
       </c>
       <c r="D99" t="n">
-        <v>6005</v>
+        <v>168</v>
       </c>
       <c r="E99" t="n">
-        <v>9845</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="D100" t="n">
-        <v>393</v>
+        <v>65</v>
       </c>
       <c r="E100" t="n">
-        <v>502</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="D101" t="n">
-        <v>843</v>
+        <v>62</v>
       </c>
       <c r="E101" t="n">
-        <v>1748</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>800</v>
+        <v>98</v>
       </c>
       <c r="D102" t="n">
-        <v>1627</v>
+        <v>190</v>
       </c>
       <c r="E102" t="n">
-        <v>3364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>593</v>
+        <v>39</v>
       </c>
       <c r="E103" t="n">
-        <v>1227</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="E104" t="n">
-        <v>606</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1863</v>
+        <v>60</v>
       </c>
       <c r="D105" t="n">
-        <v>2902</v>
+        <v>117</v>
       </c>
       <c r="E105" t="n">
-        <v>5220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E106" t="n">
-        <v>408</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="D108" t="n">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="E108" t="n">
-        <v>698</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="D110" t="n">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="E110" t="n">
-        <v>1267</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="D111" t="n">
-        <v>511</v>
+        <v>34</v>
       </c>
       <c r="E111" t="n">
-        <v>1105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="E112" t="n">
-        <v>422</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="E113" t="n">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="E121" t="n">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">

--- a/combined_4_8_16_week_report.xlsx
+++ b/combined_4_8_16_week_report.xlsx
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D3" t="n">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E3" t="n">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="D8" t="n">
-        <v>525</v>
+        <v>620</v>
       </c>
       <c r="E8" t="n">
-        <v>955</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="D9" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>529</v>
+        <v>361</v>
       </c>
       <c r="D11" t="n">
-        <v>1063</v>
+        <v>689</v>
       </c>
       <c r="E11" t="n">
-        <v>2188</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2602</v>
+        <v>2541</v>
       </c>
       <c r="D14" t="n">
-        <v>5161</v>
+        <v>5035</v>
       </c>
       <c r="E14" t="n">
-        <v>10444</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D15" t="n">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="E15" t="n">
-        <v>381</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D19" t="n">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="E19" t="n">
-        <v>784</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="D21" t="n">
-        <v>1040</v>
+        <v>989</v>
       </c>
       <c r="E21" t="n">
-        <v>2028</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="22">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="D23" t="n">
-        <v>522</v>
+        <v>464</v>
       </c>
       <c r="E23" t="n">
-        <v>1006</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>593</v>
+        <v>765</v>
       </c>
       <c r="D26" t="n">
-        <v>1190</v>
+        <v>1531</v>
       </c>
       <c r="E26" t="n">
-        <v>2360</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="D28" t="n">
-        <v>787</v>
+        <v>720</v>
       </c>
       <c r="E28" t="n">
-        <v>1580</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D29" t="n">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E29" t="n">
-        <v>671</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -1084,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>744</v>
+        <v>634</v>
       </c>
       <c r="D32" t="n">
-        <v>1350</v>
+        <v>1215</v>
       </c>
       <c r="E32" t="n">
-        <v>2319</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>504</v>
+        <v>373</v>
       </c>
       <c r="D33" t="n">
-        <v>995</v>
+        <v>745</v>
       </c>
       <c r="E33" t="n">
-        <v>1939</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>239</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1134</v>
+        <v>1349</v>
       </c>
       <c r="D39" t="n">
-        <v>2012</v>
+        <v>2587</v>
       </c>
       <c r="E39" t="n">
-        <v>4050</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="40">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E41" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E43" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="D46" t="n">
-        <v>58</v>
+        <v>709</v>
       </c>
       <c r="E46" t="n">
-        <v>112</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>47</v>
+        <v>616</v>
       </c>
       <c r="D50" t="n">
-        <v>89</v>
+        <v>1175</v>
       </c>
       <c r="E50" t="n">
-        <v>165</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="D51" t="n">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="D53" t="n">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="E53" t="n">
-        <v>41</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E54" t="n">
-        <v>32</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="D58" t="n">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="E58" t="n">
-        <v>128</v>
+        <v>844</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="D62" t="n">
-        <v>57</v>
+        <v>726</v>
       </c>
       <c r="E62" t="n">
-        <v>104</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E64" t="n">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="E66" t="n">
-        <v>31</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D67" t="n">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E67" t="n">
-        <v>32</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="D69" t="n">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="E69" t="n">
-        <v>83</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="E70" t="n">
-        <v>33</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D71" t="n">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="E71" t="n">
-        <v>49</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72">
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="D72" t="n">
-        <v>56</v>
+        <v>711</v>
       </c>
       <c r="E72" t="n">
-        <v>109</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="73">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D73" t="n">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="E73" t="n">
-        <v>63</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E74" t="n">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E75" t="n">
-        <v>32</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76">
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="E76" t="n">
-        <v>32</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>44</v>
+        <v>576</v>
       </c>
       <c r="D77" t="n">
-        <v>95</v>
+        <v>1242</v>
       </c>
       <c r="E77" t="n">
-        <v>196</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="D79" t="n">
-        <v>60</v>
+        <v>661</v>
       </c>
       <c r="E79" t="n">
-        <v>120</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E80" t="n">
-        <v>20</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="D82" t="n">
-        <v>51</v>
+        <v>645</v>
       </c>
       <c r="E82" t="n">
-        <v>96</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="83">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>168</v>
+        <v>1851</v>
       </c>
       <c r="D83" t="n">
-        <v>324</v>
+        <v>3855</v>
       </c>
       <c r="E83" t="n">
-        <v>604</v>
+        <v>7487</v>
       </c>
     </row>
     <row r="84">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="D87" t="n">
-        <v>32</v>
+        <v>410</v>
       </c>
       <c r="E87" t="n">
-        <v>64</v>
+        <v>810</v>
       </c>
     </row>
     <row r="88">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>364</v>
       </c>
       <c r="D88" t="n">
-        <v>55</v>
+        <v>627</v>
       </c>
       <c r="E88" t="n">
-        <v>103</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="89">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>33</v>
+        <v>429</v>
       </c>
       <c r="D91" t="n">
-        <v>69</v>
+        <v>892</v>
       </c>
       <c r="E91" t="n">
-        <v>134</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>517</v>
       </c>
       <c r="D94" t="n">
-        <v>77</v>
+        <v>1003</v>
       </c>
       <c r="E94" t="n">
-        <v>146</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D95" t="n">
-        <v>32</v>
+        <v>372</v>
       </c>
       <c r="E95" t="n">
-        <v>57</v>
+        <v>701</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D96" t="n">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>111</v>
+        <v>1453</v>
       </c>
       <c r="D97" t="n">
-        <v>211</v>
+        <v>2464</v>
       </c>
       <c r="E97" t="n">
-        <v>391</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>111</v>
+        <v>1373</v>
       </c>
       <c r="D98" t="n">
-        <v>211</v>
+        <v>2670</v>
       </c>
       <c r="E98" t="n">
-        <v>391</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>88</v>
+        <v>935</v>
       </c>
       <c r="D99" t="n">
-        <v>168</v>
+        <v>1964</v>
       </c>
       <c r="E99" t="n">
-        <v>308</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="D100" t="n">
-        <v>65</v>
+        <v>599</v>
       </c>
       <c r="E100" t="n">
-        <v>125</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>32</v>
+        <v>388</v>
       </c>
       <c r="D101" t="n">
-        <v>62</v>
+        <v>768</v>
       </c>
       <c r="E101" t="n">
-        <v>118</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>98</v>
+        <v>987</v>
       </c>
       <c r="D102" t="n">
-        <v>190</v>
+        <v>1904</v>
       </c>
       <c r="E102" t="n">
-        <v>360</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="D103" t="n">
-        <v>39</v>
+        <v>513</v>
       </c>
       <c r="E103" t="n">
-        <v>77</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D104" t="n">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="E104" t="n">
-        <v>63</v>
+        <v>619</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>60</v>
+        <v>534</v>
       </c>
       <c r="D105" t="n">
-        <v>117</v>
+        <v>1068</v>
       </c>
       <c r="E105" t="n">
-        <v>228</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="D106" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="E106" t="n">
-        <v>34</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D108" t="n">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="E108" t="n">
-        <v>69</v>
+        <v>830</v>
       </c>
     </row>
     <row r="109">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D109" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="E109" t="n">
-        <v>32</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="D110" t="n">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="E110" t="n">
-        <v>153</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="111">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D111" t="n">
-        <v>34</v>
+        <v>422</v>
       </c>
       <c r="E111" t="n">
-        <v>66</v>
+        <v>771</v>
       </c>
     </row>
     <row r="112">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D112" t="n">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="E112" t="n">
-        <v>32</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E113" t="n">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E114" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E115" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D117" t="n">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E117" t="n">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118">
@@ -2908,13 +2908,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E119" t="n">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E120" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E121" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122">
